--- a/assets/upload/initiative.xlsx
+++ b/assets/upload/initiative.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arkanta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/otc/assets/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="462">
   <si>
     <t>DELIVERABLES</t>
   </si>
@@ -1593,11 +1593,20 @@
 b. Refine JD for existing &amp; new positions
 c. Resource Alignment &amp; Fulfillment</t>
   </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1627,10 +1636,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,66 +1924,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="2">
+        <v>42678</v>
+      </c>
+      <c r="D2" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="2">
+        <v>42678</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>42741</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <v>42678</v>
+      </c>
+      <c r="D5" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>42678</v>
+      </c>
+      <c r="D6" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1976,7 +2028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1984,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2000,7 +2052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2016,7 +2068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2024,7 +2076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2032,7 +2084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2040,7 +2092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/assets/upload/initiative.xlsx
+++ b/assets/upload/initiative.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1604,13 +1604,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1636,15 +1639,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1656,6 +1665,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1926,14 +1938,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1958,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>42678</v>
+        <v>42675</v>
       </c>
       <c r="D2" s="3">
         <v>42825</v>
@@ -2017,7 +2029,7 @@
         <v>42678</v>
       </c>
       <c r="D6" s="3">
-        <v>42762</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,6 +2039,12 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7" s="2">
+        <v>42678</v>
+      </c>
+      <c r="D7" s="3">
+        <v>42762</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2035,6 +2053,12 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" s="2">
+        <v>42524</v>
+      </c>
+      <c r="D8" s="3">
+        <v>42790</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2043,6 +2067,12 @@
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9" s="2">
+        <v>42524</v>
+      </c>
+      <c r="D9" s="3">
+        <v>42790</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2051,6 +2081,12 @@
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10" s="2">
+        <v>42524</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42790</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2059,6 +2095,12 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" s="2">
+        <v>42524</v>
+      </c>
+      <c r="D11" s="3">
+        <v>42734</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2067,6 +2109,12 @@
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42916</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2075,6 +2123,12 @@
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43098</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2083,6 +2137,12 @@
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="C14" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43098</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2091,6 +2151,12 @@
       <c r="B15">
         <v>11</v>
       </c>
+      <c r="C15" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43098</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2099,3797 +2165,6647 @@
       <c r="B16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D16" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D18" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D19" s="3">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D21" s="3">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D22" s="3">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D23" s="3">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D24" s="3">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <v>42860</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D26" s="2">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D27" s="3">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D28" s="3">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D29" s="2">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D30" s="2">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D31" s="3">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D32" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D33" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D34" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D35" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D36" s="3">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D37" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D38" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D39" s="2">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D40" s="3">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D41" s="3">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D42" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D43" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D44" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="2">
+        <v>42708</v>
+      </c>
+      <c r="D45" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D46" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D47" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D48" s="3">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D49" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D50" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D51" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D52" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D53" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D54" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D55" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D56" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D57" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D58" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D59" s="2">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D60" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D61" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D62" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D63" s="3">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D64" s="2">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="2">
+        <v>42713</v>
+      </c>
+      <c r="D65" s="2">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D66" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D67" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D68" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D69" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D70" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="2">
+        <v>42734</v>
+      </c>
+      <c r="D71" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="2">
+        <v>42713</v>
+      </c>
+      <c r="D72" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D73" s="3">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D74" s="3">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D75" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D76" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>32</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D77" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>32</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D78" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>33</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D79" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D80" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D81" s="3">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>34</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D82" s="3">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>35</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D83" s="3">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>35</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D84" s="3">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>36</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D85" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>36</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D86" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>36</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D87" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>36</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D88" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>36</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D89" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D90" s="2">
+        <v>42909</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>36</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D91" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>37</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D92" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>37</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D93" s="4">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D94" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>38</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D95" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>39</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D96" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>39</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D97" s="2">
+        <v>42909</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D98" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>41</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D99" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>92</v>
       </c>
       <c r="B100">
         <v>41</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D100" s="2">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101">
         <v>42</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D101" s="3">
+        <v>42713</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102">
         <v>43</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" s="3">
+        <v>42713</v>
+      </c>
+      <c r="D102" s="3">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103">
         <v>44</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" s="3">
+        <v>42720</v>
+      </c>
+      <c r="D103" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104">
         <v>44</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" s="3">
+        <v>42720</v>
+      </c>
+      <c r="D104" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105">
         <v>45</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" s="2">
+        <v>42710</v>
+      </c>
+      <c r="D105" s="3">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106">
         <v>46</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" s="2">
+        <v>42811</v>
+      </c>
+      <c r="D106" s="3">
+        <v>42832</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107">
         <v>47</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" s="2">
+        <v>42839</v>
+      </c>
+      <c r="D107" s="3">
+        <v>42860</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108">
         <v>48</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" s="2">
+        <v>42860</v>
+      </c>
+      <c r="D108" s="3">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109">
         <v>48</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="2">
+        <v>42860</v>
+      </c>
+      <c r="D109" s="3">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110">
         <v>48</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="2">
+        <v>42860</v>
+      </c>
+      <c r="D110" s="3">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111">
         <v>49</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" s="2">
+        <v>42874</v>
+      </c>
+      <c r="D111" s="3">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112">
         <v>49</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" s="2">
+        <v>42874</v>
+      </c>
+      <c r="D112" s="3">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113">
         <v>49</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" s="2">
+        <v>42874</v>
+      </c>
+      <c r="D113" s="3">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114">
         <v>50</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" s="2">
+        <v>43077</v>
+      </c>
+      <c r="D114" s="3">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115">
         <v>50</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" s="2">
+        <v>43077</v>
+      </c>
+      <c r="D115" s="3">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116">
         <v>51</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D116" s="2">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D117" s="2">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118">
         <v>51</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D118" s="2">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119">
         <v>52</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D119" s="2">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120">
         <v>52</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D120" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121">
         <v>53</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D121" s="2">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
       <c r="B122">
         <v>53</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D122" s="2">
+        <v>42832</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123">
         <v>54</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D123" s="2">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124">
         <v>54</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D124" s="2">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125">
         <v>54</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="2">
+        <v>42860</v>
+      </c>
+      <c r="D125" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126">
         <v>55</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D126" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
       <c r="B127">
         <v>55</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D127" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
       <c r="B128">
         <v>55</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D128" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
       <c r="B129">
         <v>56</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D129" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130">
         <v>56</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D130" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
       <c r="B131">
         <v>56</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D131" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
       <c r="B132">
         <v>57</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D132" s="2">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="B133">
         <v>58</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D133" s="4">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
       <c r="B134">
         <v>58</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D134" s="4">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
       <c r="B135">
         <v>59</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D135" s="4">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
       <c r="B136">
         <v>60</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D136" s="2">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
       <c r="B137">
         <v>61</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D137" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
       <c r="B138">
         <v>61</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D138" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
       <c r="B139">
         <v>61</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D139" s="4">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
       <c r="B140">
         <v>62</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D140" s="2">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141">
         <v>62</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D141" s="2">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142">
         <v>62</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D142" s="2">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
       <c r="B143">
         <v>63</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D143" s="2">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
       <c r="B144">
         <v>63</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D144" s="2">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
       <c r="B145">
         <v>63</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D145" s="2">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146">
         <v>63</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D146" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>133</v>
       </c>
       <c r="B147">
         <v>64</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D147" s="2">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>134</v>
       </c>
       <c r="B148">
         <v>65</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D148" s="2">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>145</v>
       </c>
       <c r="B149">
         <v>66</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D149" s="2">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>146</v>
       </c>
       <c r="B150">
         <v>66</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D150" s="2">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>147</v>
       </c>
       <c r="B151">
         <v>67</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D151" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>148</v>
       </c>
       <c r="B152">
         <v>68</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D152" s="2">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>149</v>
       </c>
       <c r="B153">
         <v>69</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D153" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>150</v>
       </c>
       <c r="B154">
         <v>70</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D154" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>151</v>
       </c>
       <c r="B155">
         <v>71</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D155" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>152</v>
       </c>
       <c r="B156">
         <v>72</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D156" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>153</v>
       </c>
       <c r="B157">
         <v>73</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D157" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>154</v>
       </c>
       <c r="B158">
         <v>74</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D158" s="2">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>155</v>
       </c>
       <c r="B159">
         <v>75</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D159" s="2">
+        <v>42791</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>156</v>
       </c>
       <c r="B160">
         <v>75</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D160" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>157</v>
       </c>
       <c r="B161">
         <v>75</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D161" s="2">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>158</v>
       </c>
       <c r="B162">
         <v>75</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D162" s="2">
+        <v>42783</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>159</v>
       </c>
       <c r="B163">
         <v>75</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D163" s="2">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>160</v>
       </c>
       <c r="B164">
         <v>76</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" s="2">
+        <v>42650</v>
+      </c>
+      <c r="D164" s="3">
+        <v>42657</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>161</v>
       </c>
       <c r="B165">
         <v>76</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" s="2">
+        <v>42650</v>
+      </c>
+      <c r="D165" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>162</v>
       </c>
       <c r="B166">
         <v>77</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D166" s="3">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>163</v>
       </c>
       <c r="B167">
         <v>78</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D167" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>164</v>
       </c>
       <c r="B168">
         <v>79</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D168" s="3">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>165</v>
       </c>
       <c r="B169">
         <v>80</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D169" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>166</v>
       </c>
       <c r="B170">
         <v>81</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D170" s="3">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>167</v>
       </c>
       <c r="B171">
         <v>81</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D171" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>168</v>
       </c>
       <c r="B172">
         <v>82</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D172" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>169</v>
       </c>
       <c r="B173">
         <v>83</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D173" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>170</v>
       </c>
       <c r="B174">
         <v>83</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D174" s="3">
+        <v>42769</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>171</v>
       </c>
       <c r="B175">
         <v>83</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D175" s="3">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>172</v>
       </c>
       <c r="B176">
         <v>84</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D176" s="3">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>173</v>
       </c>
       <c r="B177">
         <v>84</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D177" s="3">
+        <v>42797</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>174</v>
       </c>
       <c r="B178">
         <v>84</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D178" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>175</v>
       </c>
       <c r="B179">
         <v>85</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D179" s="3">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>176</v>
       </c>
       <c r="B180">
         <v>86</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D180" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>177</v>
       </c>
       <c r="B181">
         <v>86</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D181" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>178</v>
       </c>
       <c r="B182">
         <v>87</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D182" s="3">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>179</v>
       </c>
       <c r="B183">
         <v>88</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D183" s="3">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>180</v>
       </c>
       <c r="B184">
         <v>89</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" s="2">
+        <v>42783</v>
+      </c>
+      <c r="D184" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>181</v>
       </c>
       <c r="B185">
         <v>90</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" s="2">
+        <v>42797</v>
+      </c>
+      <c r="D185" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>182</v>
       </c>
       <c r="B186">
         <v>91</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" s="2">
+        <v>42860</v>
+      </c>
+      <c r="D186" s="3">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>183</v>
       </c>
       <c r="B187">
         <v>91</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" s="2">
+        <v>42860</v>
+      </c>
+      <c r="D187" s="3">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>184</v>
       </c>
       <c r="B188">
         <v>92</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" s="2">
+        <v>42888</v>
+      </c>
+      <c r="D188" s="3">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>185</v>
       </c>
       <c r="B189">
         <v>92</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" s="2">
+        <v>42902</v>
+      </c>
+      <c r="D189" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>186</v>
       </c>
       <c r="B190">
         <v>92</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" s="2">
+        <v>42923</v>
+      </c>
+      <c r="D190" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>187</v>
       </c>
       <c r="B191">
         <v>92</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" s="2">
+        <v>42930</v>
+      </c>
+      <c r="D191" s="2">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>188</v>
       </c>
       <c r="B192">
         <v>92</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" s="2">
+        <v>42937</v>
+      </c>
+      <c r="D192" s="3">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>189</v>
       </c>
       <c r="B193">
         <v>93</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" s="2">
+        <v>42937</v>
+      </c>
+      <c r="D193" s="2">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>190</v>
       </c>
       <c r="B194">
         <v>93</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" s="2">
+        <v>42937</v>
+      </c>
+      <c r="D194" s="3">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>191</v>
       </c>
       <c r="B195">
         <v>94</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" s="2">
+        <v>42965</v>
+      </c>
+      <c r="D195" s="3">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>192</v>
       </c>
       <c r="B196">
         <v>95</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D196" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>193</v>
       </c>
       <c r="B197">
         <v>95</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D197" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>194</v>
       </c>
       <c r="B198">
         <v>95</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D198" s="2">
+        <v>42819</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>195</v>
       </c>
       <c r="B199">
         <v>96</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D199" s="2">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>196</v>
       </c>
       <c r="B200">
         <v>96</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D200" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>197</v>
       </c>
       <c r="B201">
         <v>96</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201" s="2">
+        <v>42797</v>
+      </c>
+      <c r="D201" s="2">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>198</v>
       </c>
       <c r="B202">
         <v>96</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D202" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>199</v>
       </c>
       <c r="B203">
         <v>96</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D203" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>200</v>
       </c>
       <c r="B204">
         <v>96</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D204" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>201</v>
       </c>
       <c r="B205">
         <v>97</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D205" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>202</v>
       </c>
       <c r="B206">
         <v>97</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D206" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>203</v>
       </c>
       <c r="B207">
         <v>97</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207" s="2">
+        <v>42797</v>
+      </c>
+      <c r="D207" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>204</v>
       </c>
       <c r="B208">
         <v>97</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208" s="2">
+        <v>42832</v>
+      </c>
+      <c r="D208" s="2">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>205</v>
       </c>
       <c r="B209">
         <v>97</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209" s="2">
+        <v>42979</v>
+      </c>
+      <c r="D209" s="2">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>206</v>
       </c>
       <c r="B210">
         <v>97</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210" s="2">
+        <v>42979</v>
+      </c>
+      <c r="D210" s="2">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>207</v>
       </c>
       <c r="B211">
         <v>97</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211" s="2">
+        <v>43070</v>
+      </c>
+      <c r="D211" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>208</v>
       </c>
       <c r="B212">
         <v>97</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D212" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>209</v>
       </c>
       <c r="B213">
         <v>97</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D213" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>210</v>
       </c>
       <c r="B214">
         <v>97</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214" s="2">
+        <v>42797</v>
+      </c>
+      <c r="D214" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>211</v>
       </c>
       <c r="B215">
         <v>97</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215" s="2">
+        <v>42832</v>
+      </c>
+      <c r="D215" s="2">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>212</v>
       </c>
       <c r="B216">
         <v>97</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216" s="2">
+        <v>42979</v>
+      </c>
+      <c r="D216" s="2">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>213</v>
       </c>
       <c r="B217">
         <v>97</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217" s="2">
+        <v>42979</v>
+      </c>
+      <c r="D217" s="2">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>214</v>
       </c>
       <c r="B218">
         <v>97</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218" s="2">
+        <v>43070</v>
+      </c>
+      <c r="D218" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>215</v>
       </c>
       <c r="B219">
         <v>98</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D219" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>216</v>
       </c>
       <c r="B220">
         <v>99</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D220" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>217</v>
       </c>
       <c r="B221">
         <v>100</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C221" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D221" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>218</v>
       </c>
       <c r="B222">
         <v>101</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D222" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>219</v>
       </c>
       <c r="B223">
         <v>102</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D223" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>220</v>
       </c>
       <c r="B224">
         <v>103</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D224" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>221</v>
       </c>
       <c r="B225">
         <v>103</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D225" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>222</v>
       </c>
       <c r="B226">
         <v>103</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D226" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>223</v>
       </c>
       <c r="B227">
         <v>104</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D227" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>224</v>
       </c>
       <c r="B228">
         <v>104</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D228" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>225</v>
       </c>
       <c r="B229">
         <v>105</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229" s="2">
+        <v>42797</v>
+      </c>
+      <c r="D229" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>226</v>
       </c>
       <c r="B230">
         <v>106</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D230" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>227</v>
       </c>
       <c r="B231">
         <v>107</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D231" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>228</v>
       </c>
       <c r="B232">
         <v>107</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D232" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>229</v>
       </c>
       <c r="B233">
         <v>108</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D233" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>230</v>
       </c>
       <c r="B234">
         <v>109</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D234" s="2">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>231</v>
       </c>
       <c r="B235">
         <v>109</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D235" s="2">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>232</v>
       </c>
       <c r="B236">
         <v>110</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D236" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>233</v>
       </c>
       <c r="B237">
         <v>110</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D237" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>234</v>
       </c>
       <c r="B238">
         <v>110</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D238" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>235</v>
       </c>
       <c r="B239">
         <v>110</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D239" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>236</v>
       </c>
       <c r="B240">
         <v>110</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D240" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>237</v>
       </c>
       <c r="B241">
         <v>110</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D241" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>238</v>
       </c>
       <c r="B242">
         <v>111</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242" s="2">
+        <v>43071</v>
+      </c>
+      <c r="D242" s="3">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>239</v>
       </c>
       <c r="B243">
         <v>111</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D243" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>240</v>
       </c>
       <c r="B244">
         <v>111</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D244" s="3">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>241</v>
       </c>
       <c r="B245">
         <v>111</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245" s="2">
+        <v>42797</v>
+      </c>
+      <c r="D245" s="3">
+        <v>43091</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>242</v>
       </c>
       <c r="B246">
         <v>112</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D246" s="3">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>243</v>
       </c>
       <c r="B247">
         <v>113</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D247" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>244</v>
       </c>
       <c r="B248">
         <v>113</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D248" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>245</v>
       </c>
       <c r="B249">
         <v>113</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249" s="2">
+        <v>42797</v>
+      </c>
+      <c r="D249" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>246</v>
       </c>
       <c r="B250">
         <v>114</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D250" s="2">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>247</v>
       </c>
       <c r="B251">
         <v>114</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C251" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D251" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>248</v>
       </c>
       <c r="B252">
         <v>114</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D252" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>249</v>
       </c>
       <c r="B253">
         <v>114</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C253" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D253" s="2">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>250</v>
       </c>
       <c r="B254">
         <v>114</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D254" s="2">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>251</v>
       </c>
       <c r="B255">
         <v>114</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C255" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D255" s="2">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>252</v>
       </c>
       <c r="B256">
         <v>114</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D256" s="2">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>253</v>
       </c>
       <c r="B257">
         <v>114</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C257" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D257" s="2">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>254</v>
       </c>
       <c r="B258">
         <v>114</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D258" s="2">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>255</v>
       </c>
       <c r="B259">
         <v>114</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C259" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D259" s="2">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>256</v>
       </c>
       <c r="B260">
         <v>114</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D260" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>257</v>
       </c>
       <c r="B261">
         <v>114</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C261" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D261" s="2">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>258</v>
       </c>
       <c r="B262">
         <v>114</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D262" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>259</v>
       </c>
       <c r="B263">
         <v>114</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C263" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D263" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>260</v>
       </c>
       <c r="B264">
         <v>114</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D264" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>261</v>
       </c>
       <c r="B265">
         <v>114</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C265" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D265" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>262</v>
       </c>
       <c r="B266">
         <v>114</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D266" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>263</v>
       </c>
       <c r="B267">
         <v>114</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C267" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D267" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>264</v>
       </c>
       <c r="B268">
         <v>114</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D268" s="2">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>265</v>
       </c>
       <c r="B269">
         <v>115</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C269" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D269" s="2">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>266</v>
       </c>
       <c r="B270">
         <v>115</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D270" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>267</v>
       </c>
       <c r="B271">
         <v>115</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C271" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D271" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>268</v>
       </c>
       <c r="B272">
         <v>115</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D272" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>269</v>
       </c>
       <c r="B273">
         <v>115</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C273" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D273" s="2">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>270</v>
       </c>
       <c r="B274">
         <v>116</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D274" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>271</v>
       </c>
       <c r="B275">
         <v>117</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C275" s="5">
+        <v>42705</v>
+      </c>
+      <c r="D275" s="5">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>272</v>
       </c>
       <c r="B276">
         <v>117</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D276" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>273</v>
       </c>
       <c r="B277">
         <v>117</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C277" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D277" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>274</v>
       </c>
       <c r="B278">
         <v>117</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D278" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>275</v>
       </c>
       <c r="B279">
         <v>117</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C279" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D279" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>276</v>
       </c>
       <c r="B280">
         <v>117</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D280" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>277</v>
       </c>
       <c r="B281">
         <v>117</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C281" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D281" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>278</v>
       </c>
       <c r="B282">
         <v>117</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D282" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>279</v>
       </c>
       <c r="B283">
         <v>117</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C283" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D283" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>280</v>
       </c>
       <c r="B284">
         <v>118</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D284" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>281</v>
       </c>
       <c r="B285">
         <v>118</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C285" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D285" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>282</v>
       </c>
       <c r="B286">
         <v>118</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D286" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>283</v>
       </c>
       <c r="B287">
         <v>118</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C287" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D287" s="2">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>284</v>
       </c>
       <c r="B288">
         <v>118</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D288" s="2">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>285</v>
       </c>
       <c r="B289">
         <v>118</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C289" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D289" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>271</v>
       </c>
       <c r="B290">
         <v>119</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D290" s="2">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>272</v>
       </c>
       <c r="B291">
         <v>119</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C291" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D291" s="2">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>273</v>
       </c>
       <c r="B292">
         <v>119</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C292" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D292" s="2">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>286</v>
       </c>
       <c r="B293">
         <v>120</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C293" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D293" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>287</v>
       </c>
       <c r="B294">
         <v>120</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D294" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>288</v>
       </c>
       <c r="B295">
         <v>120</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C295" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D295" s="2">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>289</v>
       </c>
       <c r="B296">
         <v>121</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C296" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D296" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>290</v>
       </c>
       <c r="B297">
         <v>121</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C297" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D297" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>291</v>
       </c>
       <c r="B298">
         <v>121</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C298" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D298" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>292</v>
       </c>
       <c r="B299">
         <v>121</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C299" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D299" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>293</v>
       </c>
       <c r="B300">
         <v>122</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C300" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D300" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>290</v>
       </c>
       <c r="B301">
         <v>122</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C301" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D301" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>291</v>
       </c>
       <c r="B302">
         <v>122</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C302" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D302" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>292</v>
       </c>
       <c r="B303">
         <v>122</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C303" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D303" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>294</v>
       </c>
       <c r="B304">
         <v>123</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C304" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D304" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>295</v>
       </c>
       <c r="B305">
         <v>123</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C305" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D305" s="2">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>296</v>
       </c>
       <c r="B306">
         <v>124</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C306" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D306" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>297</v>
       </c>
       <c r="B307">
         <v>125</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C307" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D307" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>298</v>
       </c>
       <c r="B308">
         <v>125</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C308" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D308" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>299</v>
       </c>
       <c r="B309">
         <v>125</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C309" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D309" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>300</v>
       </c>
       <c r="B310">
         <v>126</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C310" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D310" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>301</v>
       </c>
       <c r="B311">
         <v>126</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C311" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D311" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>302</v>
       </c>
       <c r="B312">
         <v>127</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C312" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D312" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>303</v>
       </c>
       <c r="B313">
         <v>127</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C313" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D313" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>304</v>
       </c>
       <c r="B314">
         <v>127</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C314" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D314" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>305</v>
       </c>
       <c r="B315">
         <v>128</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C315" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D315" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>306</v>
       </c>
       <c r="B316">
         <v>128</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C316" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D316" s="2">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>307</v>
       </c>
       <c r="B317">
         <v>128</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C317" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D317" s="2">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>308</v>
       </c>
       <c r="B318">
         <v>129</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C318" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D318" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>309</v>
       </c>
       <c r="B319">
         <v>129</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C319" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D319" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>310</v>
       </c>
       <c r="B320">
         <v>129</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C320" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D320" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>311</v>
       </c>
       <c r="B321">
         <v>129</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C321" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D321" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>312</v>
       </c>
       <c r="B322">
         <v>129</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C322" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D322" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>313</v>
       </c>
       <c r="B323">
         <v>129</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C323" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D323" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>314</v>
       </c>
       <c r="B324">
         <v>129</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C324" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D324" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>309</v>
       </c>
       <c r="B325">
         <v>129</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C325" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D325" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>310</v>
       </c>
       <c r="B326">
         <v>129</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C326" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D326" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>311</v>
       </c>
       <c r="B327">
         <v>129</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C327" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D327" s="2">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>312</v>
       </c>
       <c r="B328">
         <v>129</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C328" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D328" s="2">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>313</v>
       </c>
       <c r="B329">
         <v>129</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C329" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D329" s="2">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>315</v>
       </c>
       <c r="B330">
         <v>130</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C330" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D330" s="2">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>316</v>
       </c>
       <c r="B331">
         <v>130</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C331" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D331" s="2">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>317</v>
       </c>
       <c r="B332">
         <v>131</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C332" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D332" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>318</v>
       </c>
       <c r="B333">
         <v>131</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C333" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D333" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>319</v>
       </c>
       <c r="B334">
         <v>131</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C334" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D334" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>320</v>
       </c>
       <c r="B335">
         <v>131</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C335" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D335" s="2">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>317</v>
       </c>
       <c r="B336">
         <v>132</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C336" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D336" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>290</v>
       </c>
       <c r="B337">
         <v>132</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C337" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D337" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>321</v>
       </c>
       <c r="B338">
         <v>132</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C338" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D338" s="2">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>322</v>
       </c>
       <c r="B339">
         <v>132</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C339" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D339" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>323</v>
       </c>
       <c r="B340">
         <v>133</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C340" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D340" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>324</v>
       </c>
       <c r="B341">
         <v>133</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C341" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D341" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>325</v>
       </c>
       <c r="B342">
         <v>133</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C342" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D342" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>326</v>
       </c>
       <c r="B343">
         <v>133</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C343" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D343" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>327</v>
       </c>
       <c r="B344">
         <v>134</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C344" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D344" s="2">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>328</v>
       </c>
       <c r="B345">
         <v>134</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C345" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D345" s="2">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>329</v>
       </c>
       <c r="B346">
         <v>134</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C346" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D346" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>330</v>
       </c>
       <c r="B347">
         <v>135</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C347" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D347" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>331</v>
       </c>
       <c r="B348">
         <v>135</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C348" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D348" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>332</v>
       </c>
       <c r="B349">
         <v>135</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C349" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D349" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>333</v>
       </c>
       <c r="B350">
         <v>136</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C350" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D350" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>334</v>
       </c>
       <c r="B351">
         <v>136</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C351" s="2">
+        <v>42737</v>
+      </c>
+      <c r="D351" s="2">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>335</v>
       </c>
       <c r="B352">
         <v>137</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C352" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D352" s="3">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>336</v>
       </c>
       <c r="B353">
         <v>137</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C353" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D353" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>337</v>
       </c>
       <c r="B354">
         <v>137</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C354" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D354" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>338</v>
       </c>
       <c r="B355">
         <v>137</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C355" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D355" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>339</v>
       </c>
       <c r="B356">
         <v>137</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C356" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D356" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>340</v>
       </c>
       <c r="B357">
         <v>137</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C357" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D357" s="3">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>341</v>
       </c>
       <c r="B358">
         <v>137</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C358" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D358" s="3">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>342</v>
       </c>
       <c r="B359">
         <v>137</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C359" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D359" s="3">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>343</v>
       </c>
       <c r="B360">
         <v>137</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C360" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D360" s="3">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>344</v>
       </c>
       <c r="B361">
         <v>138</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C361" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D361" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>345</v>
       </c>
       <c r="B362">
         <v>138</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C362" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D362" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>346</v>
       </c>
       <c r="B363">
         <v>138</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C363" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D363" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>347</v>
       </c>
       <c r="B364">
         <v>138</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C364" s="2">
+        <v>42463</v>
+      </c>
+      <c r="D364" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>348</v>
       </c>
       <c r="B365">
         <v>138</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C365" s="2">
+        <v>42463</v>
+      </c>
+      <c r="D365" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>349</v>
       </c>
       <c r="B366">
         <v>138</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C366" s="2">
+        <v>42463</v>
+      </c>
+      <c r="D366" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>350</v>
       </c>
       <c r="B367">
         <v>138</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C367" s="2">
+        <v>42463</v>
+      </c>
+      <c r="D367" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>351</v>
       </c>
       <c r="B368">
         <v>139</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C368" s="2">
+        <v>42463</v>
+      </c>
+      <c r="D368" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>352</v>
       </c>
       <c r="B369">
         <v>139</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C369" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D369" s="3">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>353</v>
       </c>
       <c r="B370">
         <v>139</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C370" s="2">
+        <v>43101</v>
+      </c>
+      <c r="D370" s="3">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>354</v>
       </c>
       <c r="B371">
         <v>140</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C371" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D371" s="3">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>355</v>
       </c>
       <c r="B372">
         <v>140</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C372" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D372" s="3">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>356</v>
       </c>
       <c r="B373">
         <v>140</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C373" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D373" s="3">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>357</v>
       </c>
       <c r="B374">
         <v>140</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C374" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D374" s="3">
+        <v>43035</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>358</v>
       </c>
       <c r="B375">
         <v>141</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C375" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D375" s="3">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>359</v>
       </c>
       <c r="B376">
         <v>142</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C376" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D376" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>360</v>
       </c>
       <c r="B377">
         <v>142</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C377" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D377" s="3">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>361</v>
       </c>
       <c r="B378">
         <v>143</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C378" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D378" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>361</v>
       </c>
       <c r="B379">
         <v>144</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C379" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D379" s="3">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>361</v>
       </c>
       <c r="B380">
         <v>145</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C380" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D380" s="3">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>362</v>
       </c>
       <c r="B381">
         <v>145</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C381" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D381" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>363</v>
       </c>
       <c r="B382">
         <v>146</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C382" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D382" s="3">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>364</v>
       </c>
       <c r="B383">
         <v>147</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C383" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D383" s="3">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>365</v>
       </c>
       <c r="B384">
         <v>147</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C384" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D384" s="3">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>366</v>
       </c>
       <c r="B385">
         <v>148</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C385" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D385" s="3">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>367</v>
       </c>
       <c r="B386">
         <v>149</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C386" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D386" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>368</v>
       </c>
       <c r="B387">
         <v>149</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C387" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D387" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>369</v>
       </c>
       <c r="B388">
         <v>149</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C388" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D388" s="3">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>370</v>
       </c>
       <c r="B389">
         <v>149</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C389" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D389" s="3">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>371</v>
       </c>
       <c r="B390">
         <v>150</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C390" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D390" s="3">
+        <v>42832</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>372</v>
       </c>
       <c r="B391">
         <v>150</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C391" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D391" s="3">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>373</v>
       </c>
       <c r="B392">
         <v>150</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C392" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D392" s="3">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>374</v>
       </c>
       <c r="B393">
         <v>150</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C393" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D393" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>375</v>
       </c>
       <c r="B394">
         <v>150</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C394" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D394" s="3">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>376</v>
       </c>
       <c r="B395">
         <v>151</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C395" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D395" s="3">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>377</v>
       </c>
       <c r="B396">
         <v>151</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C396" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D396" s="3">
+        <v>42993</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>378</v>
       </c>
       <c r="B397">
         <v>151</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C397" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D397" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>379</v>
       </c>
       <c r="B398">
         <v>151</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C398" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D398" s="3">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>380</v>
       </c>
       <c r="B399">
         <v>151</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C399" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D399" s="3">
+        <v>43105</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>381</v>
       </c>
       <c r="B400">
         <v>152</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C400" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D400" s="3">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>382</v>
       </c>
       <c r="B401">
         <v>152</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D401" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>383</v>
       </c>
       <c r="B402">
         <v>152</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C402" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D402" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>384</v>
       </c>
       <c r="B403">
         <v>152</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C403" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D403" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>367</v>
       </c>
       <c r="B404">
         <v>153</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C404" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D404" s="3">
+        <v>42783</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>368</v>
       </c>
       <c r="B405">
         <v>153</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C405" s="2">
+        <v>42769</v>
+      </c>
+      <c r="D405" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>369</v>
       </c>
       <c r="B406">
         <v>153</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C406" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D406" s="3">
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>370</v>
       </c>
       <c r="B407">
         <v>153</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C407" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D407" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>372</v>
       </c>
       <c r="B408">
         <v>154</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C408" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D408" s="3">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>373</v>
       </c>
       <c r="B409">
         <v>154</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C409" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D409" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>374</v>
       </c>
       <c r="B410">
         <v>154</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C410" s="2">
+        <v>42860</v>
+      </c>
+      <c r="D410" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>375</v>
       </c>
       <c r="B411">
         <v>154</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C411" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D411" s="3">
+        <v>42860</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>376</v>
       </c>
       <c r="B412">
         <v>155</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C412" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D412" s="3">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>377</v>
       </c>
       <c r="B413">
         <v>155</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C413" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D413" s="3">
+        <v>42993</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>378</v>
       </c>
       <c r="B414">
         <v>155</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C414" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D414" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>379</v>
       </c>
       <c r="B415">
         <v>155</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C415" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D415" s="2">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>385</v>
       </c>
       <c r="B416">
         <v>155</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C416" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D416" s="3">
+        <v>43126</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>386</v>
       </c>
       <c r="B417">
         <v>156</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C417" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D417" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>387</v>
       </c>
       <c r="B418">
         <v>156</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C418" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D418" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>388</v>
       </c>
       <c r="B419">
         <v>156</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C419" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D419" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>389</v>
       </c>
       <c r="B420">
         <v>157</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C420" s="2">
+        <v>42856</v>
+      </c>
+      <c r="D420" s="3">
+        <v>43737</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>390</v>
       </c>
       <c r="B421">
         <v>157</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C421" s="2">
+        <v>42856</v>
+      </c>
+      <c r="D421" s="3">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>391</v>
       </c>
       <c r="B422">
         <v>157</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C422" s="2">
+        <v>42887</v>
+      </c>
+      <c r="D422" s="3">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>392</v>
       </c>
       <c r="B423">
         <v>158</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C423" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D423" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>393</v>
       </c>
       <c r="B424">
         <v>158</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C424" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D424" s="3">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>394</v>
       </c>
       <c r="B425">
         <v>159</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C425" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D425" s="3">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>395</v>
       </c>
       <c r="B426">
         <v>159</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C426" s="2">
+        <v>42856</v>
+      </c>
+      <c r="D426" s="3">
+        <v>42886</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>396</v>
       </c>
       <c r="B427">
         <v>160</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C427" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D427" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>397</v>
       </c>
       <c r="B428">
         <v>161</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C428" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D428" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>398</v>
       </c>
       <c r="B429">
         <v>161</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C429" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D429" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>399</v>
       </c>
       <c r="B430">
         <v>161</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C430" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D430" s="3">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>400</v>
       </c>
       <c r="B431">
         <v>162</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C431" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D431" s="3">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>401</v>
       </c>
       <c r="B432">
         <v>162</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C432" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D432" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>402</v>
       </c>
       <c r="B433">
         <v>162</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C433" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D433" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>403</v>
       </c>
       <c r="B434">
         <v>163</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C434" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D434" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>404</v>
       </c>
       <c r="B435">
         <v>163</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C435" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D435" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>405</v>
       </c>
       <c r="B436">
         <v>163</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C436" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D436" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>406</v>
       </c>
       <c r="B437">
         <v>163</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C437" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D437" s="3">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>407</v>
       </c>
       <c r="B438">
         <v>163</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C438" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D438" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>408</v>
       </c>
       <c r="B439">
         <v>164</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C439" s="3">
+        <v>42709</v>
+      </c>
+      <c r="D439" s="3">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>409</v>
       </c>
       <c r="B440">
         <v>164</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C440" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D440" s="3">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>410</v>
       </c>
       <c r="B441">
         <v>164</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C441" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D441" s="3">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>411</v>
       </c>
       <c r="B442">
         <v>165</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C442" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D442" s="3">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>412</v>
       </c>
       <c r="B443">
         <v>165</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C443" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D443" s="3">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>413</v>
       </c>
       <c r="B444">
         <v>165</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C444" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D444" s="3">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>414</v>
       </c>
       <c r="B445">
         <v>165</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C445" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D445" s="3">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>415</v>
       </c>
       <c r="B446">
         <v>166</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C446" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D446" s="3">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>416</v>
       </c>
       <c r="B447">
         <v>166</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C447" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D447" s="3">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>417</v>
       </c>
       <c r="B448">
         <v>167</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C448" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D448" s="3">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>418</v>
       </c>
       <c r="B449">
         <v>168</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C449" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D449" s="3">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>419</v>
       </c>
       <c r="B450">
         <v>168</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C450" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D450" s="3">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>420</v>
       </c>
       <c r="B451">
         <v>168</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C451" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D451" s="3">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>421</v>
       </c>
       <c r="B452">
         <v>169</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C452" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D452" s="3">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>422</v>
       </c>
       <c r="B453">
         <v>169</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C453" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D453" s="3">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>423</v>
       </c>
       <c r="B454">
         <v>170</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C454" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D454" s="3">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>424</v>
       </c>
       <c r="B455">
         <v>170</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C455" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D455" s="3">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>425</v>
       </c>
       <c r="B456">
         <v>171</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C456" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D456" s="3">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>426</v>
       </c>
       <c r="B457">
         <v>171</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C457" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D457" s="3">
+        <v>42794</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>427</v>
       </c>
       <c r="B458">
         <v>172</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C458" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D458" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>428</v>
       </c>
       <c r="B459">
         <v>173</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C459" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D459" s="3">
+        <v>42516</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>429</v>
       </c>
       <c r="B460">
         <v>174</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C460" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D460" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>430</v>
       </c>
       <c r="B461">
         <v>175</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C461" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D461" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>431</v>
       </c>
       <c r="B462">
         <v>176</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C462" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D462" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>432</v>
       </c>
       <c r="B463">
         <v>176</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C463" s="3">
+        <v>42795</v>
+      </c>
+      <c r="D463" s="3">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>433</v>
       </c>
       <c r="B464">
         <v>177</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C464" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D464" s="3">
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>434</v>
       </c>
       <c r="B465">
         <v>178</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C465" s="3">
+        <v>42736</v>
+      </c>
+      <c r="D465" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>435</v>
       </c>
       <c r="B466">
         <v>179</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C466" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D466" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>436</v>
       </c>
       <c r="B467">
         <v>179</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C467" s="3">
+        <v>42736</v>
+      </c>
+      <c r="D467" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>437</v>
       </c>
       <c r="B468">
         <v>180</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C468" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D468" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>438</v>
       </c>
       <c r="B469">
         <v>180</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C469" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D469" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>439</v>
       </c>
       <c r="B470">
         <v>180</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C470" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D470" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>440</v>
       </c>
       <c r="B471">
         <v>180</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C471" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D471" s="3">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>441</v>
       </c>
       <c r="B472">
         <v>180</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C472" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D472" s="3">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>442</v>
       </c>
       <c r="B473">
         <v>181</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C473" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D473" s="3">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>443</v>
       </c>
       <c r="B474">
         <v>182</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C474" s="3">
+        <v>42826</v>
+      </c>
+      <c r="D474" s="3">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>444</v>
       </c>
       <c r="B475">
         <v>183</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C475" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D475" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>445</v>
       </c>
       <c r="B476">
         <v>184</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C476" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D476" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>446</v>
       </c>
       <c r="B477">
         <v>185</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C477" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D477" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>447</v>
       </c>
       <c r="B478">
         <v>186</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C478" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D478" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>448</v>
       </c>
       <c r="B479">
         <v>187</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C479" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D479" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>449</v>
       </c>
       <c r="B480">
         <v>188</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C480" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D480" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>450</v>
       </c>
       <c r="B481">
         <v>189</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C481" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D481" s="3">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>451</v>
       </c>
       <c r="B482">
         <v>190</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C482" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D482" s="3">
+        <v>42762</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>452</v>
       </c>
       <c r="B483">
         <v>191</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C483" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D483" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>453</v>
       </c>
       <c r="B484">
         <v>191</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C484" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D484" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>454</v>
       </c>
       <c r="B485">
         <v>191</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C485" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D485" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>455</v>
       </c>
       <c r="B486">
         <v>192</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C486" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D486" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>456</v>
       </c>
       <c r="B487">
         <v>192</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C487" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D487" s="3">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>457</v>
       </c>
       <c r="B488">
         <v>193</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C488" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D488" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>403</v>
       </c>
       <c r="B489">
         <v>194</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C489" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D489" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>458</v>
       </c>
       <c r="B490">
         <v>194</v>
+      </c>
+      <c r="C490" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D490" s="3">
+        <v>42762</v>
       </c>
     </row>
   </sheetData>

--- a/assets/upload/initiative.xlsx
+++ b/assets/upload/initiative.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="467">
   <si>
     <t>DELIVERABLES</t>
   </si>
@@ -1599,12 +1599,30 @@
   <si>
     <t>End_date</t>
   </si>
+  <si>
+    <t xml:space="preserve">Business Proses Policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refinement </t>
+  </si>
+  <si>
+    <t>Tracking &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>Training &amp; Upskill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Capital Policy </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1617,6 +1635,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Corbel"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1639,7 +1663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1654,6 +1678,15 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1936,15 +1969,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D490"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="1" max="1" width="180.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2047,330 +2081,330 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="6" t="s">
+        <v>466</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>42524</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42790</v>
+      <c r="C8" s="7">
+        <v>42795</v>
+      </c>
+      <c r="D8" s="8">
+        <v>42855</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="6" t="s">
+        <v>462</v>
       </c>
       <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42524</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42790</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>42795</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43008</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42524</v>
-      </c>
-      <c r="D10" s="3">
-        <v>42790</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>42795</v>
+      </c>
+      <c r="D10" s="8">
+        <v>42916</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>42524</v>
-      </c>
-      <c r="D11" s="3">
-        <v>42734</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>42795</v>
+      </c>
+      <c r="D11" s="8">
+        <v>43100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D12" s="3">
-        <v>42916</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="7">
+        <v>42767</v>
+      </c>
+      <c r="D12" s="8">
+        <v>43100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
-        <v>42706</v>
+        <v>42524</v>
       </c>
       <c r="D13" s="3">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
-        <v>42741</v>
+        <v>42524</v>
       </c>
       <c r="D14" s="3">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>42741</v>
+        <v>42524</v>
       </c>
       <c r="D15" s="3">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>42706</v>
+        <v>42524</v>
       </c>
       <c r="D16" s="3">
-        <v>42825</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
-        <v>42888</v>
+        <v>42741</v>
       </c>
       <c r="D17" s="3">
-        <v>43063</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
       <c r="C18" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D18" s="3">
-        <v>42916</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>12</v>
       </c>
       <c r="C19" s="2">
-        <v>42888</v>
+        <v>42741</v>
       </c>
       <c r="D19" s="3">
-        <v>42972</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <v>42741</v>
       </c>
       <c r="D20" s="3">
-        <v>42916</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D21" s="3">
-        <v>42881</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
-        <v>42741</v>
+        <v>42888</v>
       </c>
       <c r="D22" s="3">
-        <v>42881</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
         <v>42741</v>
       </c>
       <c r="D23" s="3">
-        <v>43007</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
-        <v>42741</v>
+        <v>42888</v>
       </c>
       <c r="D24" s="3">
-        <v>43007</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>42860</v>
+        <v>42741</v>
       </c>
       <c r="D25" s="3">
-        <v>43007</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D26" s="2">
-        <v>42706</v>
+        <v>42741</v>
+      </c>
+      <c r="D26" s="3">
+        <v>42881</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D27" s="3">
-        <v>42720</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D28" s="3">
-        <v>42720</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D29" s="2">
-        <v>42706</v>
+        <v>42741</v>
+      </c>
+      <c r="D29" s="3">
+        <v>43007</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D30" s="2">
-        <v>42706</v>
+        <v>42860</v>
+      </c>
+      <c r="D30" s="3">
+        <v>43007</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -2378,13 +2412,13 @@
       <c r="C31" s="2">
         <v>42706</v>
       </c>
-      <c r="D31" s="3">
-        <v>42720</v>
+      <c r="D31" s="2">
+        <v>42706</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -2393,12 +2427,12 @@
         <v>42706</v>
       </c>
       <c r="D32" s="3">
-        <v>42727</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -2407,12 +2441,12 @@
         <v>42706</v>
       </c>
       <c r="D33" s="3">
-        <v>42727</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -2420,13 +2454,13 @@
       <c r="C34" s="2">
         <v>42706</v>
       </c>
-      <c r="D34" s="3">
-        <v>42734</v>
+      <c r="D34" s="2">
+        <v>42706</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>17</v>
@@ -2434,13 +2468,13 @@
       <c r="C35" s="2">
         <v>42706</v>
       </c>
-      <c r="D35" s="3">
-        <v>42727</v>
+      <c r="D35" s="2">
+        <v>42706</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -2454,7 +2488,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>17</v>
@@ -2468,7 +2502,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38">
         <v>17</v>
@@ -2477,26 +2511,26 @@
         <v>42706</v>
       </c>
       <c r="D38" s="3">
-        <v>42734</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2">
         <v>42706</v>
       </c>
-      <c r="D39" s="2">
-        <v>42706</v>
+      <c r="D39" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40">
         <v>18</v>
@@ -2505,12 +2539,12 @@
         <v>42706</v>
       </c>
       <c r="D40" s="3">
-        <v>42720</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>18</v>
@@ -2524,10 +2558,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
         <v>42706</v>
@@ -2538,192 +2572,192 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2">
         <v>42706</v>
       </c>
       <c r="D43" s="3">
-        <v>42727</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2">
         <v>42706</v>
       </c>
-      <c r="D44" s="3">
-        <v>42734</v>
+      <c r="D44" s="2">
+        <v>42706</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2">
-        <v>42708</v>
+        <v>42706</v>
       </c>
       <c r="D45" s="3">
-        <v>42762</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="2">
         <v>42706</v>
       </c>
       <c r="D46" s="3">
-        <v>42727</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="2">
         <v>42706</v>
       </c>
       <c r="D47" s="3">
-        <v>42734</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B48">
-        <v>22</v>
-      </c>
-      <c r="C48" s="3">
+        <v>21</v>
+      </c>
+      <c r="C48" s="2">
         <v>42706</v>
       </c>
       <c r="D48" s="3">
-        <v>42944</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B49">
-        <v>22</v>
-      </c>
-      <c r="C49" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D49" s="2">
-        <v>42825</v>
+        <v>21</v>
+      </c>
+      <c r="C49" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D49" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B50">
-        <v>22</v>
-      </c>
-      <c r="C50" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D50" s="2">
-        <v>42853</v>
+        <v>21</v>
+      </c>
+      <c r="C50" s="2">
+        <v>42708</v>
+      </c>
+      <c r="D50" s="3">
+        <v>42762</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>22</v>
       </c>
-      <c r="C51" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D51" s="2">
-        <v>42853</v>
+      <c r="C51" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D51" s="3">
+        <v>42727</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>23</v>
-      </c>
-      <c r="C52" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D52" s="2">
-        <v>42825</v>
+        <v>22</v>
+      </c>
+      <c r="C52" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D52" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="3">
         <v>42706</v>
       </c>
       <c r="D53" s="3">
-        <v>42762</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B54">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="3">
         <v>42706</v>
       </c>
       <c r="D54" s="2">
-        <v>42790</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" s="3">
         <v>42706</v>
       </c>
       <c r="D55" s="2">
-        <v>42825</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C56" s="3">
         <v>42706</v>
@@ -2734,24 +2768,24 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="3">
         <v>42706</v>
       </c>
       <c r="D57" s="2">
-        <v>42790</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B58">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="3">
         <v>42706</v>
@@ -2762,105 +2796,105 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="3">
         <v>42706</v>
       </c>
       <c r="D59" s="2">
-        <v>42930</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B60">
-        <v>27</v>
-      </c>
-      <c r="C60" s="2">
-        <v>42734</v>
+        <v>25</v>
+      </c>
+      <c r="C60" s="3">
+        <v>42706</v>
       </c>
       <c r="D60" s="2">
-        <v>42790</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <v>27</v>
-      </c>
-      <c r="C61" s="2">
-        <v>42734</v>
+        <v>26</v>
+      </c>
+      <c r="C61" s="3">
+        <v>42706</v>
       </c>
       <c r="D61" s="2">
-        <v>42825</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B62">
-        <v>27</v>
-      </c>
-      <c r="C62" s="2">
-        <v>42734</v>
+        <v>26</v>
+      </c>
+      <c r="C62" s="3">
+        <v>42706</v>
       </c>
       <c r="D62" s="2">
-        <v>42825</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>27</v>
       </c>
-      <c r="C63" s="2">
-        <v>42734</v>
+      <c r="C63" s="3">
+        <v>42706</v>
       </c>
       <c r="D63" s="3">
-        <v>42944</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B64">
         <v>27</v>
       </c>
-      <c r="C64" s="2">
-        <v>42734</v>
+      <c r="C64" s="3">
+        <v>42706</v>
       </c>
       <c r="D64" s="2">
-        <v>42972</v>
+        <v>42930</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B65">
         <v>28</v>
       </c>
       <c r="C65" s="2">
-        <v>42713</v>
+        <v>42734</v>
       </c>
       <c r="D65" s="2">
-        <v>42734</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B66">
         <v>28</v>
@@ -2868,13 +2902,13 @@
       <c r="C66" s="2">
         <v>42734</v>
       </c>
-      <c r="D66" s="3">
-        <v>42762</v>
+      <c r="D66" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B67">
         <v>28</v>
@@ -2883,54 +2917,54 @@
         <v>42734</v>
       </c>
       <c r="D67" s="2">
-        <v>42790</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" s="2">
         <v>42734</v>
       </c>
-      <c r="D68" s="2">
-        <v>42790</v>
+      <c r="D68" s="3">
+        <v>42944</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" s="2">
         <v>42734</v>
       </c>
-      <c r="D69" s="3">
-        <v>42762</v>
+      <c r="D69" s="2">
+        <v>42972</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B70">
         <v>29</v>
       </c>
       <c r="C70" s="2">
+        <v>42713</v>
+      </c>
+      <c r="D70" s="2">
         <v>42734</v>
-      </c>
-      <c r="D70" s="2">
-        <v>42790</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>29</v>
@@ -2938,125 +2972,125 @@
       <c r="C71" s="2">
         <v>42734</v>
       </c>
-      <c r="D71" s="2">
-        <v>42790</v>
+      <c r="D71" s="3">
+        <v>42762</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>29</v>
       </c>
       <c r="C72" s="2">
-        <v>42713</v>
-      </c>
-      <c r="D72" s="3">
-        <v>42762</v>
+        <v>42734</v>
+      </c>
+      <c r="D72" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B73">
         <v>30</v>
       </c>
       <c r="C73" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D73" s="3">
-        <v>42748</v>
+        <v>42734</v>
+      </c>
+      <c r="D73" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B74">
         <v>30</v>
       </c>
       <c r="C74" s="2">
-        <v>42706</v>
+        <v>42734</v>
       </c>
       <c r="D74" s="3">
-        <v>43014</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B75">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C75" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D75" s="3">
-        <v>42762</v>
+        <v>42734</v>
+      </c>
+      <c r="D75" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B76">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C76" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D76" s="3">
-        <v>42762</v>
+        <v>42734</v>
+      </c>
+      <c r="D76" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B77">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C77" s="2">
-        <v>42706</v>
+        <v>42713</v>
       </c>
       <c r="D77" s="3">
-        <v>42790</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B78">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" s="2">
         <v>42706</v>
       </c>
       <c r="D78" s="3">
-        <v>42825</v>
+        <v>42748</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B79">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C79" s="2">
         <v>42706</v>
       </c>
       <c r="D79" s="3">
-        <v>42790</v>
+        <v>43014</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B80">
         <v>33</v>
@@ -3065,12 +3099,12 @@
         <v>42706</v>
       </c>
       <c r="D80" s="3">
-        <v>42790</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B81">
         <v>33</v>
@@ -3079,152 +3113,152 @@
         <v>42706</v>
       </c>
       <c r="D81" s="3">
-        <v>43014</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B82">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82" s="2">
         <v>42706</v>
       </c>
       <c r="D82" s="3">
-        <v>43099</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B83">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83" s="2">
         <v>42706</v>
       </c>
       <c r="D83" s="3">
-        <v>42972</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B84">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C84" s="2">
         <v>42706</v>
       </c>
       <c r="D84" s="3">
-        <v>43007</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B85">
-        <v>36</v>
-      </c>
-      <c r="C85" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D85" s="2">
-        <v>42825</v>
+        <v>34</v>
+      </c>
+      <c r="C85" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D85" s="3">
+        <v>42790</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B86">
-        <v>36</v>
-      </c>
-      <c r="C86" s="3">
+        <v>34</v>
+      </c>
+      <c r="C86" s="2">
         <v>42706</v>
       </c>
       <c r="D86" s="3">
-        <v>42762</v>
+        <v>43014</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B87">
-        <v>36</v>
-      </c>
-      <c r="C87" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D87" s="2">
-        <v>42825</v>
+        <v>35</v>
+      </c>
+      <c r="C87" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D87" s="3">
+        <v>43099</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>36</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>42706</v>
       </c>
       <c r="D88" s="3">
-        <v>42762</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B89">
         <v>36</v>
       </c>
-      <c r="C89" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D89" s="2">
-        <v>42790</v>
+      <c r="C89" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D89" s="3">
+        <v>43007</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B90">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C90" s="3">
         <v>42706</v>
       </c>
       <c r="D90" s="2">
-        <v>42909</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B91">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C91" s="3">
         <v>42706</v>
       </c>
-      <c r="D91" s="2">
-        <v>42825</v>
+      <c r="D91" s="3">
+        <v>42762</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>37</v>
@@ -3238,7 +3272,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>37</v>
@@ -3246,489 +3280,489 @@
       <c r="C93" s="3">
         <v>42706</v>
       </c>
-      <c r="D93" s="4">
-        <v>42853</v>
+      <c r="D93" s="3">
+        <v>42762</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B94">
         <v>37</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="3">
         <v>42706</v>
       </c>
       <c r="D94" s="2">
-        <v>42825</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B95">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" s="3">
         <v>42706</v>
       </c>
       <c r="D95" s="2">
-        <v>42825</v>
+        <v>42909</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B96">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C96" s="3">
         <v>42706</v>
       </c>
-      <c r="D96" s="3">
-        <v>42734</v>
+      <c r="D96" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B97">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="3">
         <v>42706</v>
       </c>
       <c r="D97" s="2">
-        <v>42909</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B98">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C98" s="3">
         <v>42706</v>
       </c>
-      <c r="D98" s="2">
-        <v>42825</v>
+      <c r="D98" s="4">
+        <v>42853</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B99">
-        <v>41</v>
-      </c>
-      <c r="C99" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D99" s="3">
-        <v>42734</v>
+        <v>38</v>
+      </c>
+      <c r="C99" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D99" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B100">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C100" s="3">
         <v>42706</v>
       </c>
       <c r="D100" s="2">
-        <v>43063</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B101">
-        <v>42</v>
-      </c>
-      <c r="C101" s="2">
+        <v>40</v>
+      </c>
+      <c r="C101" s="3">
         <v>42706</v>
       </c>
       <c r="D101" s="3">
-        <v>42713</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B102">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C102" s="3">
-        <v>42713</v>
-      </c>
-      <c r="D102" s="3">
-        <v>42720</v>
+        <v>42706</v>
+      </c>
+      <c r="D102" s="2">
+        <v>42909</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B103">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C103" s="3">
-        <v>42720</v>
-      </c>
-      <c r="D103" s="3">
-        <v>42727</v>
+        <v>42706</v>
+      </c>
+      <c r="D103" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B104">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C104" s="3">
-        <v>42720</v>
+        <v>42706</v>
       </c>
       <c r="D104" s="3">
-        <v>42727</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B105">
-        <v>45</v>
-      </c>
-      <c r="C105" s="2">
-        <v>42710</v>
-      </c>
-      <c r="D105" s="3">
-        <v>42804</v>
+        <v>42</v>
+      </c>
+      <c r="C105" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D105" s="2">
+        <v>43063</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B106">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C106" s="2">
-        <v>42811</v>
+        <v>42706</v>
       </c>
       <c r="D106" s="3">
-        <v>42832</v>
+        <v>42713</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B107">
-        <v>47</v>
-      </c>
-      <c r="C107" s="2">
-        <v>42839</v>
+        <v>44</v>
+      </c>
+      <c r="C107" s="3">
+        <v>42713</v>
       </c>
       <c r="D107" s="3">
-        <v>42860</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B108">
-        <v>48</v>
-      </c>
-      <c r="C108" s="2">
-        <v>42860</v>
+        <v>45</v>
+      </c>
+      <c r="C108" s="3">
+        <v>42720</v>
       </c>
       <c r="D108" s="3">
-        <v>42867</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B109">
-        <v>48</v>
-      </c>
-      <c r="C109" s="2">
-        <v>42860</v>
+        <v>45</v>
+      </c>
+      <c r="C109" s="3">
+        <v>42720</v>
       </c>
       <c r="D109" s="3">
-        <v>42867</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B110">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2">
-        <v>42860</v>
+        <v>42710</v>
       </c>
       <c r="D110" s="3">
-        <v>42867</v>
+        <v>42804</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B111">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2">
-        <v>42874</v>
+        <v>42811</v>
       </c>
       <c r="D111" s="3">
-        <v>43070</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B112">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2">
-        <v>42874</v>
+        <v>42839</v>
       </c>
       <c r="D112" s="3">
-        <v>43070</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B113">
         <v>49</v>
       </c>
       <c r="C113" s="2">
-        <v>42874</v>
+        <v>42860</v>
       </c>
       <c r="D113" s="3">
-        <v>43070</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B114">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2">
-        <v>43077</v>
+        <v>42860</v>
       </c>
       <c r="D114" s="3">
-        <v>42755</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B115">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2">
-        <v>43077</v>
+        <v>42860</v>
       </c>
       <c r="D115" s="3">
-        <v>42755</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B116">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C116" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D116" s="2">
-        <v>42741</v>
+        <v>42874</v>
+      </c>
+      <c r="D116" s="3">
+        <v>43070</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B117">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D117" s="2">
-        <v>42748</v>
+        <v>42874</v>
+      </c>
+      <c r="D117" s="3">
+        <v>43070</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B118">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D118" s="2">
-        <v>42755</v>
+        <v>42874</v>
+      </c>
+      <c r="D118" s="3">
+        <v>43070</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B119">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D119" s="2">
+        <v>43077</v>
+      </c>
+      <c r="D119" s="3">
         <v>42755</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B120">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D120" s="2">
-        <v>42790</v>
+        <v>43077</v>
+      </c>
+      <c r="D120" s="3">
+        <v>42755</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B121">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2">
         <v>42737</v>
       </c>
       <c r="D121" s="2">
-        <v>42811</v>
+        <v>42741</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B122">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C122" s="2">
         <v>42737</v>
       </c>
       <c r="D122" s="2">
-        <v>42832</v>
+        <v>42748</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B123">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2">
         <v>42737</v>
       </c>
       <c r="D123" s="2">
-        <v>42839</v>
+        <v>42755</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B124">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C124" s="2">
         <v>42737</v>
       </c>
       <c r="D124" s="2">
-        <v>42846</v>
+        <v>42755</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B125">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2">
-        <v>42860</v>
+        <v>42737</v>
       </c>
       <c r="D125" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B126">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C126" s="2">
-        <v>42741</v>
+        <v>42737</v>
       </c>
       <c r="D126" s="2">
-        <v>43098</v>
+        <v>42811</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B127">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C127" s="2">
-        <v>42741</v>
+        <v>42737</v>
       </c>
       <c r="D127" s="2">
-        <v>43098</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B128">
         <v>55</v>
@@ -3737,194 +3771,194 @@
         <v>42737</v>
       </c>
       <c r="D128" s="2">
-        <v>43098</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B129">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C129" s="2">
         <v>42737</v>
       </c>
       <c r="D129" s="2">
-        <v>42762</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B130">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C130" s="2">
-        <v>42737</v>
+        <v>42860</v>
       </c>
       <c r="D130" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B131">
         <v>56</v>
       </c>
       <c r="C131" s="2">
-        <v>42737</v>
+        <v>42741</v>
       </c>
       <c r="D131" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B132">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2">
-        <v>42737</v>
+        <v>42741</v>
       </c>
       <c r="D132" s="2">
-        <v>42825</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B133">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C133" s="2">
         <v>42737</v>
       </c>
-      <c r="D133" s="4">
-        <v>42853</v>
+      <c r="D133" s="2">
+        <v>43098</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B134">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C134" s="2">
         <v>42737</v>
       </c>
-      <c r="D134" s="4">
-        <v>42944</v>
+      <c r="D134" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B135">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2">
         <v>42737</v>
       </c>
-      <c r="D135" s="4">
-        <v>42944</v>
+      <c r="D135" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B136">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C136" s="2">
         <v>42737</v>
       </c>
       <c r="D136" s="2">
-        <v>43063</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B137">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2">
         <v>42737</v>
       </c>
       <c r="D137" s="2">
-        <v>42762</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B138">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2">
         <v>42737</v>
       </c>
-      <c r="D138" s="2">
-        <v>42790</v>
+      <c r="D138" s="4">
+        <v>42853</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B139">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2">
         <v>42737</v>
       </c>
       <c r="D139" s="4">
-        <v>42853</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B140">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C140" s="2">
         <v>42737</v>
       </c>
-      <c r="D140" s="2">
-        <v>42881</v>
+      <c r="D140" s="4">
+        <v>42944</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B141">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C141" s="2">
         <v>42737</v>
       </c>
       <c r="D141" s="2">
-        <v>42881</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B142">
         <v>62</v>
@@ -3933,40 +3967,40 @@
         <v>42737</v>
       </c>
       <c r="D142" s="2">
-        <v>42881</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B143">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C143" s="2">
         <v>42737</v>
       </c>
       <c r="D143" s="2">
-        <v>42916</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B144">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C144" s="2">
         <v>42737</v>
       </c>
-      <c r="D144" s="2">
-        <v>42972</v>
+      <c r="D144" s="4">
+        <v>42853</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B145">
         <v>63</v>
@@ -3975,12 +4009,12 @@
         <v>42737</v>
       </c>
       <c r="D145" s="2">
-        <v>43007</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B146">
         <v>63</v>
@@ -3989,236 +4023,236 @@
         <v>42737</v>
       </c>
       <c r="D146" s="2">
-        <v>43035</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B147">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C147" s="2">
         <v>42737</v>
       </c>
       <c r="D147" s="2">
-        <v>43063</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B148">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C148" s="2">
         <v>42737</v>
       </c>
       <c r="D148" s="2">
-        <v>43063</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B149">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C149" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D149" s="2">
-        <v>42720</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B150">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C150" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D150" s="2">
-        <v>42804</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B151">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C151" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D151" s="2">
-        <v>42818</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B152">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C152" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D152" s="2">
-        <v>42776</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B153">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C153" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D153" s="2">
-        <v>43098</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B154">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C154" s="2">
         <v>42706</v>
       </c>
       <c r="D154" s="2">
-        <v>43098</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B155">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C155" s="2">
         <v>42706</v>
       </c>
       <c r="D155" s="2">
-        <v>43098</v>
+        <v>42804</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B156">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C156" s="2">
         <v>42706</v>
       </c>
       <c r="D156" s="2">
-        <v>42762</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B157">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C157" s="2">
         <v>42706</v>
       </c>
       <c r="D157" s="2">
-        <v>42853</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B158">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C158" s="2">
         <v>42706</v>
       </c>
       <c r="D158" s="2">
-        <v>42755</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B159">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C159" s="2">
         <v>42706</v>
       </c>
       <c r="D159" s="2">
-        <v>42791</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B160">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C160" s="2">
         <v>42706</v>
       </c>
       <c r="D160" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B161">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C161" s="2">
         <v>42706</v>
       </c>
       <c r="D161" s="2">
-        <v>42776</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B162">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C162" s="2">
         <v>42706</v>
       </c>
       <c r="D162" s="2">
-        <v>42783</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B163">
         <v>75</v>
@@ -4227,127 +4261,127 @@
         <v>42706</v>
       </c>
       <c r="D163" s="2">
-        <v>42804</v>
+        <v>42755</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B164">
         <v>76</v>
       </c>
       <c r="C164" s="2">
-        <v>42650</v>
-      </c>
-      <c r="D164" s="3">
-        <v>42657</v>
+        <v>42706</v>
+      </c>
+      <c r="D164" s="2">
+        <v>42791</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B165">
         <v>76</v>
       </c>
       <c r="C165" s="2">
-        <v>42650</v>
-      </c>
-      <c r="D165" s="3">
-        <v>42734</v>
+        <v>42706</v>
+      </c>
+      <c r="D165" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B166">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C166" s="2">
         <v>42706</v>
       </c>
-      <c r="D166" s="3">
-        <v>42755</v>
+      <c r="D166" s="2">
+        <v>42776</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B167">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C167" s="2">
         <v>42706</v>
       </c>
-      <c r="D167" s="3">
-        <v>42825</v>
+      <c r="D167" s="2">
+        <v>42783</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B168">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C168" s="2">
         <v>42706</v>
       </c>
-      <c r="D168" s="3">
-        <v>43035</v>
+      <c r="D168" s="2">
+        <v>42804</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B169">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C169" s="2">
-        <v>42706</v>
+        <v>42650</v>
       </c>
       <c r="D169" s="3">
-        <v>42734</v>
+        <v>42657</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B170">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C170" s="2">
-        <v>42706</v>
+        <v>42650</v>
       </c>
       <c r="D170" s="3">
-        <v>42776</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B171">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C171" s="2">
         <v>42706</v>
       </c>
       <c r="D171" s="3">
-        <v>42790</v>
+        <v>42755</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B172">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C172" s="2">
         <v>42706</v>
@@ -4358,77 +4392,77 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B173">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C173" s="2">
         <v>42706</v>
       </c>
       <c r="D173" s="3">
-        <v>42762</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B174">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C174" s="2">
         <v>42706</v>
       </c>
       <c r="D174" s="3">
-        <v>42769</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B175">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C175" s="2">
         <v>42706</v>
       </c>
       <c r="D175" s="3">
-        <v>42804</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B176">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C176" s="2">
         <v>42706</v>
       </c>
       <c r="D176" s="3">
-        <v>42797</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B177">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C177" s="2">
         <v>42706</v>
       </c>
       <c r="D177" s="3">
-        <v>42797</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B178">
         <v>84</v>
@@ -4437,334 +4471,334 @@
         <v>42706</v>
       </c>
       <c r="D178" s="3">
-        <v>42853</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B179">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C179" s="2">
         <v>42706</v>
       </c>
       <c r="D179" s="3">
-        <v>42895</v>
+        <v>42769</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B180">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C180" s="2">
         <v>42706</v>
       </c>
       <c r="D180" s="3">
-        <v>42825</v>
+        <v>42804</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B181">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C181" s="2">
         <v>42706</v>
       </c>
       <c r="D181" s="3">
-        <v>42825</v>
+        <v>42797</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B182">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C182" s="2">
         <v>42706</v>
       </c>
       <c r="D182" s="3">
-        <v>42944</v>
+        <v>42797</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B183">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C183" s="2">
-        <v>42769</v>
+        <v>42706</v>
       </c>
       <c r="D183" s="3">
-        <v>42776</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B184">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C184" s="2">
-        <v>42783</v>
+        <v>42706</v>
       </c>
       <c r="D184" s="3">
-        <v>42790</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B185">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C185" s="2">
-        <v>42797</v>
+        <v>42706</v>
       </c>
       <c r="D185" s="3">
-        <v>42853</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B186">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C186" s="2">
-        <v>42860</v>
+        <v>42706</v>
       </c>
       <c r="D186" s="3">
-        <v>42881</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B187">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C187" s="2">
-        <v>42860</v>
+        <v>42706</v>
       </c>
       <c r="D187" s="3">
-        <v>42881</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B188">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C188" s="2">
-        <v>42888</v>
+        <v>42769</v>
       </c>
       <c r="D188" s="3">
-        <v>42895</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B189">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C189" s="2">
-        <v>42902</v>
+        <v>42783</v>
       </c>
       <c r="D189" s="3">
-        <v>42916</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B190">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C190" s="2">
-        <v>42923</v>
-      </c>
-      <c r="D190" s="2">
-        <v>42923</v>
+        <v>42797</v>
+      </c>
+      <c r="D190" s="3">
+        <v>42853</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B191">
         <v>92</v>
       </c>
       <c r="C191" s="2">
-        <v>42930</v>
-      </c>
-      <c r="D191" s="2">
-        <v>42930</v>
+        <v>42860</v>
+      </c>
+      <c r="D191" s="3">
+        <v>42881</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B192">
         <v>92</v>
       </c>
       <c r="C192" s="2">
-        <v>42937</v>
+        <v>42860</v>
       </c>
       <c r="D192" s="3">
-        <v>42965</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B193">
         <v>93</v>
       </c>
       <c r="C193" s="2">
-        <v>42937</v>
-      </c>
-      <c r="D193" s="2">
-        <v>42937</v>
+        <v>42888</v>
+      </c>
+      <c r="D193" s="3">
+        <v>42895</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B194">
         <v>93</v>
       </c>
       <c r="C194" s="2">
-        <v>42937</v>
+        <v>42902</v>
       </c>
       <c r="D194" s="3">
-        <v>42986</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B195">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C195" s="2">
-        <v>42965</v>
-      </c>
-      <c r="D195" s="3">
-        <v>42986</v>
+        <v>42923</v>
+      </c>
+      <c r="D195" s="2">
+        <v>42923</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B196">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C196" s="2">
-        <v>42706</v>
+        <v>42930</v>
       </c>
       <c r="D196" s="2">
-        <v>42818</v>
+        <v>42930</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B197">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C197" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D197" s="2">
-        <v>42818</v>
+        <v>42937</v>
+      </c>
+      <c r="D197" s="3">
+        <v>42965</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B198">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C198" s="2">
-        <v>42706</v>
+        <v>42937</v>
       </c>
       <c r="D198" s="2">
-        <v>42819</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B199">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C199" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D199" s="2">
-        <v>42916</v>
+        <v>42937</v>
+      </c>
+      <c r="D199" s="3">
+        <v>42986</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B200">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C200" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D200" s="2">
-        <v>42853</v>
+        <v>42965</v>
+      </c>
+      <c r="D200" s="3">
+        <v>42986</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B201">
         <v>96</v>
       </c>
       <c r="C201" s="2">
-        <v>42797</v>
+        <v>42706</v>
       </c>
       <c r="D201" s="2">
-        <v>42916</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B202">
         <v>96</v>
@@ -4778,7 +4812,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B203">
         <v>96</v>
@@ -4787,26 +4821,26 @@
         <v>42706</v>
       </c>
       <c r="D203" s="2">
-        <v>42853</v>
+        <v>42819</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B204">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C204" s="2">
-        <v>42769</v>
+        <v>42706</v>
       </c>
       <c r="D204" s="2">
-        <v>42853</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B205">
         <v>97</v>
@@ -4815,32 +4849,32 @@
         <v>42706</v>
       </c>
       <c r="D205" s="2">
-        <v>42762</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B206">
         <v>97</v>
       </c>
       <c r="C206" s="2">
-        <v>42769</v>
+        <v>42797</v>
       </c>
       <c r="D206" s="2">
-        <v>42790</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B207">
         <v>97</v>
       </c>
       <c r="C207" s="2">
-        <v>42797</v>
+        <v>42706</v>
       </c>
       <c r="D207" s="2">
         <v>42818</v>
@@ -4848,265 +4882,265 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B208">
         <v>97</v>
       </c>
       <c r="C208" s="2">
-        <v>42832</v>
+        <v>42706</v>
       </c>
       <c r="D208" s="2">
-        <v>42972</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B209">
         <v>97</v>
       </c>
       <c r="C209" s="2">
-        <v>42979</v>
+        <v>42769</v>
       </c>
       <c r="D209" s="2">
-        <v>43063</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B210">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C210" s="2">
-        <v>42979</v>
+        <v>42706</v>
       </c>
       <c r="D210" s="2">
-        <v>43063</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B211">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C211" s="2">
-        <v>43070</v>
+        <v>42769</v>
       </c>
       <c r="D211" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B212">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C212" s="2">
-        <v>42706</v>
+        <v>42797</v>
       </c>
       <c r="D212" s="2">
-        <v>42762</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B213">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C213" s="2">
-        <v>42769</v>
+        <v>42832</v>
       </c>
       <c r="D213" s="2">
-        <v>42790</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B214">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C214" s="2">
-        <v>42797</v>
+        <v>42979</v>
       </c>
       <c r="D214" s="2">
-        <v>42818</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B215">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C215" s="2">
-        <v>42832</v>
+        <v>42979</v>
       </c>
       <c r="D215" s="2">
-        <v>42972</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B216">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C216" s="2">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="D216" s="2">
-        <v>43063</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B217">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C217" s="2">
-        <v>42979</v>
+        <v>42706</v>
       </c>
       <c r="D217" s="2">
-        <v>43063</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B218">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C218" s="2">
-        <v>43070</v>
+        <v>42769</v>
       </c>
       <c r="D218" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B219">
         <v>98</v>
       </c>
       <c r="C219" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D219" s="3">
-        <v>42734</v>
+        <v>42797</v>
+      </c>
+      <c r="D219" s="2">
+        <v>42818</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B220">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C220" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D220" s="3">
-        <v>42734</v>
+        <v>42832</v>
+      </c>
+      <c r="D220" s="2">
+        <v>42972</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B221">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C221" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D221" s="3">
-        <v>43098</v>
+        <v>42979</v>
+      </c>
+      <c r="D221" s="2">
+        <v>43063</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B222">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C222" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D222" s="3">
-        <v>42734</v>
+        <v>42979</v>
+      </c>
+      <c r="D222" s="2">
+        <v>43063</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B223">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C223" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D223" s="3">
-        <v>42790</v>
+        <v>43070</v>
+      </c>
+      <c r="D223" s="2">
+        <v>43098</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B224">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C224" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D224" s="3">
-        <v>43098</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B225">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C225" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D225" s="3">
-        <v>43098</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B226">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C226" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D226" s="3">
         <v>43098</v>
@@ -5114,41 +5148,41 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B227">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C227" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D227" s="3">
-        <v>42825</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B228">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C228" s="2">
         <v>42741</v>
       </c>
       <c r="D228" s="3">
-        <v>42825</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B229">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C229" s="2">
-        <v>42797</v>
+        <v>42741</v>
       </c>
       <c r="D229" s="3">
         <v>43098</v>
@@ -5156,164 +5190,164 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B230">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C230" s="2">
         <v>42741</v>
       </c>
       <c r="D230" s="3">
-        <v>42916</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B231">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C231" s="2">
         <v>42741</v>
       </c>
       <c r="D231" s="3">
-        <v>42916</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B232">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C232" s="2">
         <v>42741</v>
       </c>
       <c r="D232" s="3">
-        <v>42916</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B233">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C233" s="2">
         <v>42741</v>
       </c>
       <c r="D233" s="3">
-        <v>42916</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B234">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C234" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D234" s="2">
-        <v>43099</v>
+        <v>42797</v>
+      </c>
+      <c r="D234" s="3">
+        <v>43098</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B235">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C235" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D235" s="2">
-        <v>43099</v>
+        <v>42741</v>
+      </c>
+      <c r="D235" s="3">
+        <v>42916</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B236">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C236" s="2">
         <v>42741</v>
       </c>
-      <c r="D236" s="2">
-        <v>42762</v>
+      <c r="D236" s="3">
+        <v>42916</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B237">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C237" s="2">
         <v>42741</v>
       </c>
-      <c r="D237" s="2">
-        <v>42762</v>
+      <c r="D237" s="3">
+        <v>42916</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B238">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C238" s="2">
         <v>42741</v>
       </c>
-      <c r="D238" s="2">
-        <v>42762</v>
+      <c r="D238" s="3">
+        <v>42916</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B239">
         <v>110</v>
       </c>
       <c r="C239" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D239" s="2">
-        <v>42762</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B240">
         <v>110</v>
       </c>
       <c r="C240" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D240" s="2">
-        <v>42762</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B241">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C241" s="2">
         <v>42741</v>
@@ -5324,21 +5358,21 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B242">
         <v>111</v>
       </c>
       <c r="C242" s="2">
-        <v>43071</v>
-      </c>
-      <c r="D242" s="3">
-        <v>43099</v>
+        <v>42741</v>
+      </c>
+      <c r="D242" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B243">
         <v>111</v>
@@ -5346,212 +5380,212 @@
       <c r="C243" s="2">
         <v>42741</v>
       </c>
-      <c r="D243" s="3">
-        <v>42853</v>
+      <c r="D243" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B244">
         <v>111</v>
       </c>
       <c r="C244" s="2">
-        <v>42769</v>
-      </c>
-      <c r="D244" s="3">
-        <v>42972</v>
+        <v>42741</v>
+      </c>
+      <c r="D244" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B245">
         <v>111</v>
       </c>
       <c r="C245" s="2">
-        <v>42797</v>
-      </c>
-      <c r="D245" s="3">
-        <v>43091</v>
+        <v>42741</v>
+      </c>
+      <c r="D245" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B246">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C246" s="2">
-        <v>42769</v>
-      </c>
-      <c r="D246" s="3">
-        <v>43035</v>
+        <v>42741</v>
+      </c>
+      <c r="D246" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B247">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C247" s="2">
-        <v>42741</v>
+        <v>43071</v>
       </c>
       <c r="D247" s="3">
-        <v>42790</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B248">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C248" s="2">
-        <v>42769</v>
+        <v>42741</v>
       </c>
       <c r="D248" s="3">
-        <v>42790</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B249">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C249" s="2">
-        <v>42797</v>
+        <v>42769</v>
       </c>
       <c r="D249" s="3">
-        <v>43098</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B250">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C250" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D250" s="2">
-        <v>42916</v>
+        <v>42797</v>
+      </c>
+      <c r="D250" s="3">
+        <v>43091</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B251">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C251" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D251" s="2">
-        <v>42790</v>
+        <v>42769</v>
+      </c>
+      <c r="D251" s="3">
+        <v>43035</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B252">
         <v>114</v>
       </c>
       <c r="C252" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D252" s="2">
-        <v>42818</v>
+        <v>42741</v>
+      </c>
+      <c r="D252" s="3">
+        <v>42790</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B253">
         <v>114</v>
       </c>
       <c r="C253" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D253" s="2">
-        <v>42734</v>
+        <v>42769</v>
+      </c>
+      <c r="D253" s="3">
+        <v>42790</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B254">
         <v>114</v>
       </c>
       <c r="C254" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D254" s="2">
-        <v>42734</v>
+        <v>42797</v>
+      </c>
+      <c r="D254" s="3">
+        <v>43098</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B255">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C255" s="2">
         <v>42706</v>
       </c>
       <c r="D255" s="2">
-        <v>42734</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B256">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C256" s="2">
         <v>42706</v>
       </c>
       <c r="D256" s="2">
-        <v>42734</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B257">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C257" s="2">
         <v>42706</v>
       </c>
       <c r="D257" s="2">
-        <v>42734</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B258">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C258" s="2">
         <v>42706</v>
@@ -5562,38 +5596,38 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B259">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C259" s="2">
         <v>42706</v>
       </c>
       <c r="D259" s="2">
-        <v>42916</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B260">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C260" s="2">
         <v>42706</v>
       </c>
       <c r="D260" s="2">
-        <v>43098</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B261">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C261" s="2">
         <v>42706</v>
@@ -5604,80 +5638,80 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B262">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C262" s="2">
         <v>42706</v>
       </c>
       <c r="D262" s="2">
-        <v>42853</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B263">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C263" s="2">
         <v>42706</v>
       </c>
       <c r="D263" s="2">
-        <v>42853</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B264">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C264" s="2">
         <v>42706</v>
       </c>
       <c r="D264" s="2">
-        <v>42762</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B265">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C265" s="2">
         <v>42706</v>
       </c>
       <c r="D265" s="2">
-        <v>42818</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B266">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C266" s="2">
         <v>42706</v>
       </c>
       <c r="D266" s="2">
-        <v>42818</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B267">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C267" s="2">
         <v>42706</v>
@@ -5688,21 +5722,21 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B268">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C268" s="2">
         <v>42706</v>
       </c>
       <c r="D268" s="2">
-        <v>42881</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B269">
         <v>115</v>
@@ -5711,12 +5745,12 @@
         <v>42706</v>
       </c>
       <c r="D269" s="2">
-        <v>42734</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B270">
         <v>115</v>
@@ -5725,26 +5759,26 @@
         <v>42706</v>
       </c>
       <c r="D270" s="2">
-        <v>42853</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B271">
         <v>115</v>
       </c>
       <c r="C271" s="2">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="D271" s="2">
-        <v>43098</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B272">
         <v>115</v>
@@ -5753,12 +5787,12 @@
         <v>42706</v>
       </c>
       <c r="D272" s="2">
-        <v>42790</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B273">
         <v>115</v>
@@ -5772,38 +5806,38 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B274">
         <v>116</v>
       </c>
       <c r="C274" s="2">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="D274" s="2">
-        <v>43098</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B275">
-        <v>117</v>
-      </c>
-      <c r="C275" s="5">
-        <v>42705</v>
-      </c>
-      <c r="D275" s="5">
-        <v>43098</v>
+        <v>116</v>
+      </c>
+      <c r="C275" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D275" s="2">
+        <v>42853</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B276">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C276" s="2">
         <v>42705</v>
@@ -5814,35 +5848,35 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B277">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C277" s="2">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="D277" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B278">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C278" s="2">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="D278" s="2">
-        <v>43098</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B279">
         <v>117</v>
@@ -5856,24 +5890,24 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B280">
-        <v>117</v>
-      </c>
-      <c r="C280" s="2">
+        <v>118</v>
+      </c>
+      <c r="C280" s="5">
         <v>42705</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280" s="5">
         <v>43098</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B281">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C281" s="2">
         <v>42705</v>
@@ -5884,10 +5918,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B282">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C282" s="2">
         <v>42705</v>
@@ -5898,10 +5932,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B283">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C283" s="2">
         <v>42705</v>
@@ -5912,7 +5946,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B284">
         <v>118</v>
@@ -5926,7 +5960,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B285">
         <v>118</v>
@@ -5940,55 +5974,55 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B286">
         <v>118</v>
       </c>
       <c r="C286" s="2">
-        <v>42706</v>
+        <v>42705</v>
       </c>
       <c r="D286" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B287">
         <v>118</v>
       </c>
       <c r="C287" s="2">
-        <v>42706</v>
+        <v>42705</v>
       </c>
       <c r="D287" s="2">
-        <v>42881</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B288">
         <v>118</v>
       </c>
       <c r="C288" s="2">
-        <v>42706</v>
+        <v>42705</v>
       </c>
       <c r="D288" s="2">
-        <v>43063</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B289">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C289" s="2">
-        <v>42706</v>
+        <v>42705</v>
       </c>
       <c r="D289" s="2">
         <v>43098</v>
@@ -5996,21 +6030,21 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B290">
         <v>119</v>
       </c>
       <c r="C290" s="2">
-        <v>42706</v>
+        <v>42705</v>
       </c>
       <c r="D290" s="2">
-        <v>42916</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B291">
         <v>119</v>
@@ -6019,12 +6053,12 @@
         <v>42706</v>
       </c>
       <c r="D291" s="2">
-        <v>42972</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B292">
         <v>119</v>
@@ -6033,40 +6067,40 @@
         <v>42706</v>
       </c>
       <c r="D292" s="2">
-        <v>43035</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B293">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C293" s="2">
         <v>42706</v>
       </c>
       <c r="D293" s="2">
-        <v>42790</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B294">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C294" s="2">
         <v>42706</v>
       </c>
       <c r="D294" s="2">
-        <v>42853</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B295">
         <v>120</v>
@@ -6080,77 +6114,77 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B296">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C296" s="2">
         <v>42706</v>
       </c>
       <c r="D296" s="2">
-        <v>42762</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B297">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C297" s="2">
         <v>42706</v>
       </c>
       <c r="D297" s="2">
-        <v>42790</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B298">
         <v>121</v>
       </c>
       <c r="C298" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D298" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B299">
         <v>121</v>
       </c>
       <c r="C299" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D299" s="2">
-        <v>43098</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B300">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C300" s="2">
         <v>42706</v>
       </c>
       <c r="D300" s="2">
-        <v>42790</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B301">
         <v>122</v>
@@ -6164,21 +6198,21 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B302">
         <v>122</v>
       </c>
       <c r="C302" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D302" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B303">
         <v>122</v>
@@ -6192,21 +6226,21 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B304">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C304" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D304" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B305">
         <v>123</v>
@@ -6215,130 +6249,130 @@
         <v>42706</v>
       </c>
       <c r="D305" s="2">
-        <v>42881</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B306">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C306" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D306" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B307">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C307" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D307" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B308">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C308" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D308" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B309">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C309" s="2">
         <v>42706</v>
       </c>
       <c r="D309" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B310">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C310" s="2">
         <v>42706</v>
       </c>
       <c r="D310" s="2">
-        <v>42762</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B311">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C311" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D311" s="2">
-        <v>42818</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B312">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C312" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D312" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B313">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C313" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D313" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B314">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C314" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D314" s="2">
         <v>43098</v>
@@ -6346,52 +6380,52 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B315">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C315" s="2">
         <v>42706</v>
       </c>
       <c r="D315" s="2">
-        <v>42790</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B316">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C316" s="2">
         <v>42706</v>
       </c>
       <c r="D316" s="2">
-        <v>42916</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B317">
         <v>128</v>
       </c>
       <c r="C317" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D317" s="2">
-        <v>42916</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B318">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C318" s="2">
         <v>42737</v>
@@ -6402,10 +6436,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B319">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C319" s="2">
         <v>42737</v>
@@ -6416,35 +6450,35 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B320">
         <v>129</v>
       </c>
       <c r="C320" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D320" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B321">
         <v>129</v>
       </c>
       <c r="C321" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D321" s="2">
-        <v>43098</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B322">
         <v>129</v>
@@ -6453,180 +6487,180 @@
         <v>42706</v>
       </c>
       <c r="D322" s="2">
-        <v>42762</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B323">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C323" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D323" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B324">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C324" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D324" s="2">
-        <v>42818</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B325">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C325" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D325" s="2">
-        <v>42818</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B326">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C326" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D326" s="2">
-        <v>42818</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B327">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C327" s="2">
         <v>42706</v>
       </c>
       <c r="D327" s="2">
-        <v>42853</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B328">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C328" s="2">
         <v>42706</v>
       </c>
       <c r="D328" s="2">
-        <v>42881</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B329">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C329" s="2">
         <v>42706</v>
       </c>
       <c r="D329" s="2">
-        <v>42881</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B330">
         <v>130</v>
       </c>
       <c r="C330" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D330" s="2">
-        <v>43099</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B331">
         <v>130</v>
       </c>
       <c r="C331" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D331" s="2">
-        <v>43099</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B332">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C332" s="2">
         <v>42706</v>
       </c>
       <c r="D332" s="2">
-        <v>42762</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B333">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C333" s="2">
         <v>42706</v>
       </c>
       <c r="D333" s="2">
-        <v>42762</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B334">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C334" s="2">
         <v>42706</v>
       </c>
       <c r="D334" s="2">
-        <v>42762</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B335">
         <v>131</v>
@@ -6640,21 +6674,21 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B336">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C336" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D336" s="2">
-        <v>42762</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="B337">
         <v>132</v>
@@ -6668,7 +6702,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B338">
         <v>132</v>
@@ -6677,12 +6711,12 @@
         <v>42706</v>
       </c>
       <c r="D338" s="2">
-        <v>42818</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B339">
         <v>132</v>
@@ -6691,26 +6725,26 @@
         <v>42706</v>
       </c>
       <c r="D339" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B340">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C340" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D340" s="2">
-        <v>42762</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B341">
         <v>133</v>
@@ -6724,7 +6758,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="B342">
         <v>133</v>
@@ -6733,12 +6767,12 @@
         <v>42706</v>
       </c>
       <c r="D342" s="2">
-        <v>42790</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B343">
         <v>133</v>
@@ -6747,26 +6781,26 @@
         <v>42706</v>
       </c>
       <c r="D343" s="2">
-        <v>43098</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B344">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C344" s="2">
         <v>42706</v>
       </c>
       <c r="D344" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B345">
         <v>134</v>
@@ -6775,46 +6809,46 @@
         <v>42706</v>
       </c>
       <c r="D345" s="2">
-        <v>42790</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B346">
         <v>134</v>
       </c>
       <c r="C346" s="2">
-        <v>42769</v>
+        <v>42706</v>
       </c>
       <c r="D346" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B347">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C347" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D347" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B348">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C348" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D348" s="2">
         <v>43098</v>
@@ -6822,41 +6856,41 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B349">
         <v>135</v>
       </c>
       <c r="C349" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D349" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B350">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C350" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D350" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B351">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C351" s="2">
-        <v>42737</v>
+        <v>42769</v>
       </c>
       <c r="D351" s="2">
         <v>43098</v>
@@ -6864,133 +6898,133 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B352">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C352" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D352" s="3">
-        <v>43462</v>
+        <v>42737</v>
+      </c>
+      <c r="D352" s="2">
+        <v>43098</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B353">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C353" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D353" s="3">
+        <v>42737</v>
+      </c>
+      <c r="D353" s="2">
         <v>43098</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B354">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C354" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D354" s="3">
+        <v>42737</v>
+      </c>
+      <c r="D354" s="2">
         <v>43098</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B355">
         <v>137</v>
       </c>
       <c r="C355" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D355" s="3">
+        <v>42737</v>
+      </c>
+      <c r="D355" s="2">
         <v>43098</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B356">
         <v>137</v>
       </c>
       <c r="C356" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D356" s="3">
-        <v>42790</v>
+        <v>42737</v>
+      </c>
+      <c r="D356" s="2">
+        <v>43098</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B357">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C357" s="2">
         <v>42706</v>
       </c>
       <c r="D357" s="3">
-        <v>43280</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B358">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C358" s="2">
         <v>42706</v>
       </c>
       <c r="D358" s="3">
-        <v>43371</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B359">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C359" s="2">
         <v>42706</v>
       </c>
       <c r="D359" s="3">
-        <v>43462</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B360">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C360" s="2">
         <v>42706</v>
       </c>
       <c r="D360" s="3">
-        <v>43462</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B361">
         <v>138</v>
@@ -6999,12 +7033,12 @@
         <v>42706</v>
       </c>
       <c r="D361" s="3">
-        <v>42916</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B362">
         <v>138</v>
@@ -7013,12 +7047,12 @@
         <v>42706</v>
       </c>
       <c r="D362" s="3">
-        <v>43098</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B363">
         <v>138</v>
@@ -7027,60 +7061,60 @@
         <v>42706</v>
       </c>
       <c r="D363" s="3">
-        <v>42825</v>
+        <v>43371</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B364">
         <v>138</v>
       </c>
       <c r="C364" s="2">
-        <v>42463</v>
+        <v>42706</v>
       </c>
       <c r="D364" s="3">
-        <v>43098</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B365">
         <v>138</v>
       </c>
       <c r="C365" s="2">
-        <v>42463</v>
+        <v>42706</v>
       </c>
       <c r="D365" s="3">
-        <v>43098</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B366">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C366" s="2">
-        <v>42463</v>
+        <v>42706</v>
       </c>
       <c r="D366" s="3">
-        <v>43098</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B367">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C367" s="2">
-        <v>42463</v>
+        <v>42706</v>
       </c>
       <c r="D367" s="3">
         <v>43098</v>
@@ -7088,91 +7122,91 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B368">
         <v>139</v>
       </c>
       <c r="C368" s="2">
-        <v>42463</v>
+        <v>42706</v>
       </c>
       <c r="D368" s="3">
-        <v>43098</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B369">
         <v>139</v>
       </c>
       <c r="C369" s="2">
-        <v>42706</v>
+        <v>42463</v>
       </c>
       <c r="D369" s="3">
-        <v>43280</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B370">
         <v>139</v>
       </c>
       <c r="C370" s="2">
-        <v>43101</v>
+        <v>42463</v>
       </c>
       <c r="D370" s="3">
-        <v>43465</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B371">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C371" s="2">
-        <v>42706</v>
+        <v>42463</v>
       </c>
       <c r="D371" s="3">
-        <v>43035</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B372">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C372" s="2">
-        <v>42706</v>
+        <v>42463</v>
       </c>
       <c r="D372" s="3">
-        <v>43035</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B373">
         <v>140</v>
       </c>
       <c r="C373" s="2">
-        <v>42706</v>
+        <v>42463</v>
       </c>
       <c r="D373" s="3">
-        <v>43035</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B374">
         <v>140</v>
@@ -7181,236 +7215,236 @@
         <v>42706</v>
       </c>
       <c r="D374" s="3">
-        <v>43035</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B375">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C375" s="2">
-        <v>42706</v>
+        <v>43101</v>
       </c>
       <c r="D375" s="3">
-        <v>42748</v>
+        <v>43465</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B376">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C376" s="2">
         <v>42706</v>
       </c>
       <c r="D376" s="3">
-        <v>42762</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B377">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C377" s="2">
         <v>42706</v>
       </c>
       <c r="D377" s="3">
-        <v>42776</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B378">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C378" s="2">
         <v>42706</v>
       </c>
       <c r="D378" s="3">
-        <v>42790</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B379">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C379" s="2">
         <v>42706</v>
       </c>
       <c r="D379" s="3">
-        <v>42818</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B380">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C380" s="2">
         <v>42706</v>
       </c>
       <c r="D380" s="3">
-        <v>42839</v>
+        <v>42748</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B381">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C381" s="2">
         <v>42706</v>
       </c>
       <c r="D381" s="3">
-        <v>42853</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B382">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C382" s="2">
         <v>42706</v>
       </c>
       <c r="D382" s="3">
-        <v>42895</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B383">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C383" s="2">
         <v>42706</v>
       </c>
       <c r="D383" s="3">
-        <v>42923</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B384">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C384" s="2">
         <v>42706</v>
       </c>
       <c r="D384" s="3">
-        <v>42937</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B385">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C385" s="2">
         <v>42706</v>
       </c>
       <c r="D385" s="3">
-        <v>42804</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B386">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C386" s="2">
         <v>42706</v>
       </c>
       <c r="D386" s="3">
-        <v>42790</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B387">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C387" s="2">
-        <v>42769</v>
+        <v>42706</v>
       </c>
       <c r="D387" s="3">
-        <v>42825</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B388">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C388" s="2">
         <v>42706</v>
       </c>
       <c r="D388" s="3">
-        <v>42811</v>
+        <v>42923</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B389">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C389" s="2">
         <v>42706</v>
       </c>
       <c r="D389" s="3">
-        <v>42874</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B390">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C390" s="2">
         <v>42706</v>
       </c>
       <c r="D390" s="3">
-        <v>42832</v>
+        <v>42804</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B391">
         <v>150</v>
@@ -7419,26 +7453,26 @@
         <v>42706</v>
       </c>
       <c r="D391" s="3">
-        <v>42839</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B392">
         <v>150</v>
       </c>
       <c r="C392" s="2">
-        <v>42706</v>
+        <v>42769</v>
       </c>
       <c r="D392" s="3">
-        <v>42846</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B393">
         <v>150</v>
@@ -7447,12 +7481,12 @@
         <v>42706</v>
       </c>
       <c r="D393" s="3">
-        <v>42916</v>
+        <v>42811</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B394">
         <v>150</v>
@@ -7461,12 +7495,12 @@
         <v>42706</v>
       </c>
       <c r="D394" s="3">
-        <v>42951</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B395">
         <v>151</v>
@@ -7475,12 +7509,12 @@
         <v>42706</v>
       </c>
       <c r="D395" s="3">
-        <v>42986</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B396">
         <v>151</v>
@@ -7489,12 +7523,12 @@
         <v>42706</v>
       </c>
       <c r="D396" s="3">
-        <v>42993</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B397">
         <v>151</v>
@@ -7503,12 +7537,12 @@
         <v>42706</v>
       </c>
       <c r="D397" s="3">
-        <v>43000</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B398">
         <v>151</v>
@@ -7517,12 +7551,12 @@
         <v>42706</v>
       </c>
       <c r="D398" s="3">
-        <v>43084</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B399">
         <v>151</v>
@@ -7531,12 +7565,12 @@
         <v>42706</v>
       </c>
       <c r="D399" s="3">
-        <v>43105</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B400">
         <v>152</v>
@@ -7545,12 +7579,12 @@
         <v>42706</v>
       </c>
       <c r="D400" s="3">
-        <v>42748</v>
+        <v>42986</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B401">
         <v>152</v>
@@ -7559,12 +7593,12 @@
         <v>42706</v>
       </c>
       <c r="D401" s="3">
-        <v>43098</v>
+        <v>42993</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B402">
         <v>152</v>
@@ -7573,12 +7607,12 @@
         <v>42706</v>
       </c>
       <c r="D402" s="3">
-        <v>42790</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B403">
         <v>152</v>
@@ -7587,40 +7621,40 @@
         <v>42706</v>
       </c>
       <c r="D403" s="3">
-        <v>43098</v>
+        <v>43084</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="B404">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C404" s="2">
         <v>42706</v>
       </c>
       <c r="D404" s="3">
-        <v>42783</v>
+        <v>43105</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B405">
         <v>153</v>
       </c>
       <c r="C405" s="2">
-        <v>42769</v>
+        <v>42706</v>
       </c>
       <c r="D405" s="3">
-        <v>42825</v>
+        <v>42748</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="B406">
         <v>153</v>
@@ -7629,12 +7663,12 @@
         <v>42706</v>
       </c>
       <c r="D406" s="3">
-        <v>42874</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B407">
         <v>153</v>
@@ -7648,21 +7682,21 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B408">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C408" s="2">
         <v>42706</v>
       </c>
       <c r="D408" s="3">
-        <v>42839</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B409">
         <v>154</v>
@@ -7671,26 +7705,26 @@
         <v>42706</v>
       </c>
       <c r="D409" s="3">
-        <v>42853</v>
+        <v>42783</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B410">
         <v>154</v>
       </c>
       <c r="C410" s="2">
-        <v>42860</v>
+        <v>42769</v>
       </c>
       <c r="D410" s="3">
-        <v>42916</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B411">
         <v>154</v>
@@ -7699,26 +7733,26 @@
         <v>42706</v>
       </c>
       <c r="D411" s="3">
-        <v>42860</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B412">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C412" s="2">
         <v>42706</v>
       </c>
       <c r="D412" s="3">
-        <v>42951</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B413">
         <v>155</v>
@@ -7727,12 +7761,12 @@
         <v>42706</v>
       </c>
       <c r="D413" s="3">
-        <v>42993</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B414">
         <v>155</v>
@@ -7741,26 +7775,26 @@
         <v>42706</v>
       </c>
       <c r="D414" s="3">
-        <v>43000</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B415">
         <v>155</v>
       </c>
       <c r="C415" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D415" s="2">
-        <v>43084</v>
+        <v>42860</v>
+      </c>
+      <c r="D415" s="3">
+        <v>42916</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B416">
         <v>155</v>
@@ -7769,40 +7803,40 @@
         <v>42706</v>
       </c>
       <c r="D416" s="3">
-        <v>43126</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B417">
         <v>156</v>
       </c>
       <c r="C417" s="2">
-        <v>42738</v>
+        <v>42706</v>
       </c>
       <c r="D417" s="3">
-        <v>42762</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B418">
         <v>156</v>
       </c>
       <c r="C418" s="2">
-        <v>42738</v>
+        <v>42706</v>
       </c>
       <c r="D418" s="3">
-        <v>42790</v>
+        <v>42993</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B419">
         <v>156</v>
@@ -7811,194 +7845,194 @@
         <v>42706</v>
       </c>
       <c r="D419" s="3">
-        <v>42790</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B420">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C420" s="2">
-        <v>42856</v>
-      </c>
-      <c r="D420" s="3">
-        <v>43737</v>
+        <v>42706</v>
+      </c>
+      <c r="D420" s="2">
+        <v>43084</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B421">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C421" s="2">
-        <v>42856</v>
+        <v>42706</v>
       </c>
       <c r="D421" s="3">
-        <v>43099</v>
+        <v>43126</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B422">
         <v>157</v>
       </c>
       <c r="C422" s="2">
-        <v>42887</v>
+        <v>42738</v>
       </c>
       <c r="D422" s="3">
-        <v>43099</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B423">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C423" s="2">
-        <v>42795</v>
+        <v>42738</v>
       </c>
       <c r="D423" s="3">
-        <v>42825</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B424">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C424" s="2">
-        <v>42795</v>
+        <v>42706</v>
       </c>
       <c r="D424" s="3">
-        <v>43099</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B425">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C425" s="2">
-        <v>42738</v>
+        <v>42856</v>
       </c>
       <c r="D425" s="3">
-        <v>42794</v>
+        <v>43737</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B426">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C426" s="2">
         <v>42856</v>
       </c>
       <c r="D426" s="3">
-        <v>42886</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B427">
-        <v>160</v>
-      </c>
-      <c r="C427" s="3">
-        <v>42705</v>
+        <v>158</v>
+      </c>
+      <c r="C427" s="2">
+        <v>42887</v>
       </c>
       <c r="D427" s="3">
-        <v>42853</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B428">
-        <v>161</v>
-      </c>
-      <c r="C428" s="3">
-        <v>42705</v>
+        <v>159</v>
+      </c>
+      <c r="C428" s="2">
+        <v>42795</v>
       </c>
       <c r="D428" s="3">
-        <v>42727</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B429">
-        <v>161</v>
-      </c>
-      <c r="C429" s="3">
-        <v>42705</v>
+        <v>159</v>
+      </c>
+      <c r="C429" s="2">
+        <v>42795</v>
       </c>
       <c r="D429" s="3">
-        <v>42727</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B430">
-        <v>161</v>
-      </c>
-      <c r="C430" s="3">
-        <v>42705</v>
+        <v>160</v>
+      </c>
+      <c r="C430" s="2">
+        <v>42738</v>
       </c>
       <c r="D430" s="3">
-        <v>42756</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B431">
-        <v>162</v>
-      </c>
-      <c r="C431" s="3">
-        <v>42705</v>
+        <v>160</v>
+      </c>
+      <c r="C431" s="2">
+        <v>42856</v>
       </c>
       <c r="D431" s="3">
-        <v>42741</v>
+        <v>42886</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B432">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C432" s="3">
         <v>42705</v>
       </c>
       <c r="D432" s="3">
-        <v>42790</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B433">
         <v>162</v>
@@ -8007,15 +8041,15 @@
         <v>42705</v>
       </c>
       <c r="D433" s="3">
-        <v>42790</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B434">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C434" s="3">
         <v>42705</v>
@@ -8026,21 +8060,21 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B435">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C435" s="3">
         <v>42705</v>
       </c>
       <c r="D435" s="3">
-        <v>42790</v>
+        <v>42756</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B436">
         <v>163</v>
@@ -8049,12 +8083,12 @@
         <v>42705</v>
       </c>
       <c r="D436" s="3">
-        <v>42790</v>
+        <v>42741</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B437">
         <v>163</v>
@@ -8063,12 +8097,12 @@
         <v>42705</v>
       </c>
       <c r="D437" s="3">
-        <v>42748</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B438">
         <v>163</v>
@@ -8077,26 +8111,26 @@
         <v>42705</v>
       </c>
       <c r="D438" s="3">
-        <v>42762</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B439">
         <v>164</v>
       </c>
       <c r="C439" s="3">
-        <v>42709</v>
+        <v>42705</v>
       </c>
       <c r="D439" s="3">
-        <v>42720</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B440">
         <v>164</v>
@@ -8105,12 +8139,12 @@
         <v>42705</v>
       </c>
       <c r="D440" s="3">
-        <v>42735</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B441">
         <v>164</v>
@@ -8119,54 +8153,54 @@
         <v>42705</v>
       </c>
       <c r="D441" s="3">
-        <v>42735</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B442">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C442" s="3">
         <v>42705</v>
       </c>
       <c r="D442" s="3">
-        <v>42735</v>
+        <v>42748</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B443">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C443" s="3">
         <v>42705</v>
       </c>
       <c r="D443" s="3">
-        <v>42735</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B444">
         <v>165</v>
       </c>
       <c r="C444" s="3">
-        <v>42705</v>
+        <v>42709</v>
       </c>
       <c r="D444" s="3">
-        <v>42735</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B445">
         <v>165</v>
@@ -8180,21 +8214,21 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B446">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C446" s="3">
         <v>42705</v>
       </c>
       <c r="D446" s="3">
-        <v>42756</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B447">
         <v>166</v>
@@ -8203,71 +8237,71 @@
         <v>42705</v>
       </c>
       <c r="D447" s="3">
-        <v>42766</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B448">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C448" s="3">
         <v>42705</v>
       </c>
       <c r="D448" s="3">
-        <v>42756</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B449">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C449" s="3">
         <v>42705</v>
       </c>
       <c r="D449" s="3">
-        <v>42766</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B450">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C450" s="3">
         <v>42705</v>
       </c>
       <c r="D450" s="3">
-        <v>42766</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B451">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C451" s="3">
         <v>42705</v>
       </c>
       <c r="D451" s="3">
-        <v>42766</v>
+        <v>42756</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B452">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C452" s="3">
         <v>42705</v>
@@ -8278,24 +8312,24 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B453">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C453" s="3">
         <v>42705</v>
       </c>
       <c r="D453" s="3">
-        <v>42766</v>
+        <v>42756</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B454">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C454" s="3">
         <v>42705</v>
@@ -8306,10 +8340,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B455">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C455" s="3">
         <v>42705</v>
@@ -8320,10 +8354,10 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B456">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C456" s="3">
         <v>42705</v>
@@ -8334,203 +8368,203 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B457">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C457" s="3">
         <v>42705</v>
       </c>
       <c r="D457" s="3">
-        <v>42794</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B458">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C458" s="3">
         <v>42705</v>
       </c>
       <c r="D458" s="3">
-        <v>42734</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B459">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C459" s="3">
         <v>42705</v>
       </c>
       <c r="D459" s="3">
-        <v>42516</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B460">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C460" s="3">
         <v>42705</v>
       </c>
       <c r="D460" s="3">
-        <v>42734</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B461">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C461" s="3">
         <v>42705</v>
       </c>
       <c r="D461" s="3">
-        <v>43098</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B462">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C462" s="3">
         <v>42705</v>
       </c>
       <c r="D462" s="3">
-        <v>42734</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B463">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C463" s="3">
-        <v>42795</v>
+        <v>42705</v>
       </c>
       <c r="D463" s="3">
-        <v>42916</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B464">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C464" s="3">
         <v>42705</v>
       </c>
       <c r="D464" s="3">
-        <v>42882</v>
+        <v>42516</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B465">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C465" s="3">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="D465" s="3">
-        <v>42853</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B466">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C466" s="3">
         <v>42705</v>
       </c>
       <c r="D466" s="3">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B467">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C467" s="3">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="D467" s="3">
-        <v>42790</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B468">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C468" s="3">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="D468" s="3">
-        <v>42790</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B469">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C469" s="3">
         <v>42705</v>
       </c>
       <c r="D469" s="3">
-        <v>42790</v>
+        <v>42882</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B470">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C470" s="3">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="D470" s="3">
-        <v>42825</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B471">
         <v>180</v>
@@ -8539,26 +8573,26 @@
         <v>42705</v>
       </c>
       <c r="D471" s="3">
-        <v>42881</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B472">
         <v>180</v>
       </c>
       <c r="C472" s="3">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="D472" s="3">
-        <v>42881</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B473">
         <v>181</v>
@@ -8567,99 +8601,99 @@
         <v>42705</v>
       </c>
       <c r="D473" s="3">
-        <v>42825</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B474">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C474" s="3">
-        <v>42826</v>
+        <v>42705</v>
       </c>
       <c r="D474" s="3">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B475">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C475" s="3">
         <v>42705</v>
       </c>
       <c r="D475" s="3">
-        <v>42734</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B476">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C476" s="3">
         <v>42705</v>
       </c>
       <c r="D476" s="3">
-        <v>42762</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B477">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C477" s="3">
         <v>42705</v>
       </c>
       <c r="D477" s="3">
-        <v>42762</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B478">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C478" s="3">
         <v>42705</v>
       </c>
       <c r="D478" s="3">
-        <v>42762</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B479">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C479" s="3">
-        <v>42705</v>
+        <v>42826</v>
       </c>
       <c r="D479" s="3">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B480">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C480" s="3">
         <v>42705</v>
@@ -8670,24 +8704,24 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B481">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C481" s="3">
         <v>42705</v>
       </c>
       <c r="D481" s="3">
-        <v>43099</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B482">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C482" s="3">
         <v>42705</v>
@@ -8698,113 +8732,183 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B483">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C483" s="3">
         <v>42705</v>
       </c>
       <c r="D483" s="3">
-        <v>42853</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B484">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C484" s="3">
         <v>42705</v>
       </c>
       <c r="D484" s="3">
-        <v>42853</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B485">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C485" s="3">
         <v>42705</v>
       </c>
       <c r="D485" s="3">
-        <v>42853</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B486">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C486" s="3">
         <v>42705</v>
       </c>
       <c r="D486" s="3">
-        <v>42734</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B487">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C487" s="3">
         <v>42705</v>
       </c>
       <c r="D487" s="3">
-        <v>42741</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B488">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C488" s="3">
         <v>42705</v>
       </c>
       <c r="D488" s="3">
-        <v>42790</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="B489">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C489" s="3">
         <v>42705</v>
       </c>
       <c r="D489" s="3">
-        <v>42727</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B490">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C490" s="3">
         <v>42705</v>
       </c>
       <c r="D490" s="3">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>455</v>
+      </c>
+      <c r="B491">
+        <v>193</v>
+      </c>
+      <c r="C491" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D491" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>456</v>
+      </c>
+      <c r="B492">
+        <v>193</v>
+      </c>
+      <c r="C492" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D492" s="3">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>457</v>
+      </c>
+      <c r="B493">
+        <v>194</v>
+      </c>
+      <c r="C493" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D493" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>403</v>
+      </c>
+      <c r="B494">
+        <v>195</v>
+      </c>
+      <c r="C494" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D494" s="3">
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>458</v>
+      </c>
+      <c r="B495">
+        <v>195</v>
+      </c>
+      <c r="C495" s="3">
+        <v>42705</v>
+      </c>
+      <c r="D495" s="3">
         <v>42762</v>
       </c>
     </row>

--- a/assets/upload/initiative.xlsx
+++ b/assets/upload/initiative.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="462">
   <si>
     <t>DELIVERABLES</t>
   </si>
@@ -1599,30 +1599,12 @@
   <si>
     <t>End_date</t>
   </si>
-  <si>
-    <t xml:space="preserve">Business Proses Policy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refinement </t>
-  </si>
-  <si>
-    <t>Tracking &amp; Monitoring</t>
-  </si>
-  <si>
-    <t>Training &amp; Upskill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Capital Policy </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1635,12 +1617,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Corbel"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1663,7 +1639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1678,15 +1654,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1969,16 +1936,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="180.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2081,330 +2047,330 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>466</v>
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="7">
-        <v>42795</v>
-      </c>
-      <c r="D8" s="8">
-        <v>42855</v>
+      <c r="C8" s="2">
+        <v>42524</v>
+      </c>
+      <c r="D8" s="3">
+        <v>42790</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>462</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7">
-        <v>42795</v>
-      </c>
-      <c r="D9" s="8">
-        <v>43008</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42524</v>
+      </c>
+      <c r="D9" s="3">
+        <v>42790</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>463</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7">
-        <v>42795</v>
-      </c>
-      <c r="D10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42524</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42524</v>
+      </c>
+      <c r="D11" s="3">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42741</v>
+      </c>
+      <c r="D12" s="3">
         <v>42916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7">
-        <v>42795</v>
-      </c>
-      <c r="D11" s="8">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7">
-        <v>42767</v>
-      </c>
-      <c r="D12" s="8">
-        <v>43100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>42524</v>
+        <v>42706</v>
       </c>
       <c r="D13" s="3">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>42524</v>
+        <v>42741</v>
       </c>
       <c r="D14" s="3">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>42524</v>
+        <v>42741</v>
       </c>
       <c r="D15" s="3">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>42524</v>
+        <v>42706</v>
       </c>
       <c r="D16" s="3">
-        <v>42734</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>11</v>
       </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
       <c r="C17" s="2">
-        <v>42741</v>
+        <v>42888</v>
       </c>
       <c r="D17" s="3">
-        <v>42916</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
       <c r="C18" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D18" s="3">
-        <v>43098</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>12</v>
       </c>
       <c r="C19" s="2">
-        <v>42741</v>
+        <v>42888</v>
       </c>
       <c r="D19" s="3">
-        <v>43098</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>42741</v>
       </c>
       <c r="D20" s="3">
-        <v>43098</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D21" s="3">
-        <v>42825</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>42888</v>
+        <v>42741</v>
       </c>
       <c r="D22" s="3">
-        <v>43063</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2">
         <v>42741</v>
       </c>
       <c r="D23" s="3">
-        <v>42916</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>42888</v>
+        <v>42741</v>
       </c>
       <c r="D24" s="3">
-        <v>42972</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>42741</v>
+        <v>42860</v>
       </c>
       <c r="D25" s="3">
-        <v>42916</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D26" s="3">
-        <v>42881</v>
+        <v>42706</v>
+      </c>
+      <c r="D26" s="2">
+        <v>42706</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D27" s="3">
-        <v>42881</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D28" s="3">
-        <v>43007</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D29" s="3">
-        <v>43007</v>
+        <v>42706</v>
+      </c>
+      <c r="D29" s="2">
+        <v>42706</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
-        <v>42860</v>
-      </c>
-      <c r="D30" s="3">
-        <v>43007</v>
+        <v>42706</v>
+      </c>
+      <c r="D30" s="2">
+        <v>42706</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -2412,13 +2378,13 @@
       <c r="C31" s="2">
         <v>42706</v>
       </c>
-      <c r="D31" s="2">
-        <v>42706</v>
+      <c r="D31" s="3">
+        <v>42720</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -2427,12 +2393,12 @@
         <v>42706</v>
       </c>
       <c r="D32" s="3">
-        <v>42720</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -2441,12 +2407,12 @@
         <v>42706</v>
       </c>
       <c r="D33" s="3">
-        <v>42720</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -2454,13 +2420,13 @@
       <c r="C34" s="2">
         <v>42706</v>
       </c>
-      <c r="D34" s="2">
-        <v>42706</v>
+      <c r="D34" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>17</v>
@@ -2468,13 +2434,13 @@
       <c r="C35" s="2">
         <v>42706</v>
       </c>
-      <c r="D35" s="2">
-        <v>42706</v>
+      <c r="D35" s="3">
+        <v>42727</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -2488,7 +2454,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>17</v>
@@ -2502,7 +2468,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>17</v>
@@ -2511,26 +2477,26 @@
         <v>42706</v>
       </c>
       <c r="D38" s="3">
-        <v>42727</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2">
         <v>42706</v>
       </c>
-      <c r="D39" s="3">
-        <v>42734</v>
+      <c r="D39" s="2">
+        <v>42706</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>18</v>
@@ -2539,12 +2505,12 @@
         <v>42706</v>
       </c>
       <c r="D40" s="3">
-        <v>42727</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>18</v>
@@ -2558,10 +2524,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2">
         <v>42706</v>
@@ -2572,192 +2538,192 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" s="2">
         <v>42706</v>
       </c>
       <c r="D43" s="3">
-        <v>42734</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" s="2">
         <v>42706</v>
       </c>
-      <c r="D44" s="2">
-        <v>42706</v>
+      <c r="D44" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2">
-        <v>42706</v>
+        <v>42708</v>
       </c>
       <c r="D45" s="3">
-        <v>42720</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2">
         <v>42706</v>
       </c>
       <c r="D46" s="3">
-        <v>42720</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2">
         <v>42706</v>
       </c>
       <c r="D47" s="3">
-        <v>42727</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>21</v>
-      </c>
-      <c r="C48" s="2">
+        <v>22</v>
+      </c>
+      <c r="C48" s="3">
         <v>42706</v>
       </c>
       <c r="D48" s="3">
-        <v>42727</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>21</v>
-      </c>
-      <c r="C49" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D49" s="3">
-        <v>42734</v>
+        <v>22</v>
+      </c>
+      <c r="C49" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D49" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>21</v>
-      </c>
-      <c r="C50" s="2">
-        <v>42708</v>
-      </c>
-      <c r="D50" s="3">
-        <v>42762</v>
+        <v>22</v>
+      </c>
+      <c r="C50" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D50" s="2">
+        <v>42853</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>22</v>
       </c>
-      <c r="C51" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D51" s="3">
-        <v>42727</v>
+      <c r="C51" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D51" s="2">
+        <v>42853</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>22</v>
-      </c>
-      <c r="C52" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D52" s="3">
-        <v>42734</v>
+        <v>23</v>
+      </c>
+      <c r="C52" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D52" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" s="3">
         <v>42706</v>
       </c>
       <c r="D53" s="3">
-        <v>42944</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" s="3">
         <v>42706</v>
       </c>
       <c r="D54" s="2">
-        <v>42825</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C55" s="3">
         <v>42706</v>
       </c>
       <c r="D55" s="2">
-        <v>42853</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C56" s="3">
         <v>42706</v>
@@ -2768,24 +2734,24 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C57" s="3">
         <v>42706</v>
       </c>
       <c r="D57" s="2">
-        <v>42825</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" s="3">
         <v>42706</v>
@@ -2796,105 +2762,105 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59" s="3">
         <v>42706</v>
       </c>
       <c r="D59" s="2">
-        <v>42790</v>
+        <v>42930</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>25</v>
-      </c>
-      <c r="C60" s="3">
-        <v>42706</v>
+        <v>27</v>
+      </c>
+      <c r="C60" s="2">
+        <v>42734</v>
       </c>
       <c r="D60" s="2">
-        <v>42825</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>26</v>
-      </c>
-      <c r="C61" s="3">
-        <v>42706</v>
+        <v>27</v>
+      </c>
+      <c r="C61" s="2">
+        <v>42734</v>
       </c>
       <c r="D61" s="2">
-        <v>42853</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>26</v>
-      </c>
-      <c r="C62" s="3">
-        <v>42706</v>
+        <v>27</v>
+      </c>
+      <c r="C62" s="2">
+        <v>42734</v>
       </c>
       <c r="D62" s="2">
-        <v>42790</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>27</v>
       </c>
-      <c r="C63" s="3">
-        <v>42706</v>
+      <c r="C63" s="2">
+        <v>42734</v>
       </c>
       <c r="D63" s="3">
-        <v>42762</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>27</v>
       </c>
-      <c r="C64" s="3">
-        <v>42706</v>
+      <c r="C64" s="2">
+        <v>42734</v>
       </c>
       <c r="D64" s="2">
-        <v>42930</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>28</v>
       </c>
       <c r="C65" s="2">
+        <v>42713</v>
+      </c>
+      <c r="D65" s="2">
         <v>42734</v>
-      </c>
-      <c r="D65" s="2">
-        <v>42790</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>28</v>
@@ -2902,13 +2868,13 @@
       <c r="C66" s="2">
         <v>42734</v>
       </c>
-      <c r="D66" s="2">
-        <v>42825</v>
+      <c r="D66" s="3">
+        <v>42762</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>28</v>
@@ -2917,54 +2883,54 @@
         <v>42734</v>
       </c>
       <c r="D67" s="2">
-        <v>42825</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" s="2">
         <v>42734</v>
       </c>
-      <c r="D68" s="3">
-        <v>42944</v>
+      <c r="D68" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69" s="2">
         <v>42734</v>
       </c>
-      <c r="D69" s="2">
-        <v>42972</v>
+      <c r="D69" s="3">
+        <v>42762</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>29</v>
       </c>
       <c r="C70" s="2">
-        <v>42713</v>
+        <v>42734</v>
       </c>
       <c r="D70" s="2">
-        <v>42734</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>29</v>
@@ -2972,125 +2938,125 @@
       <c r="C71" s="2">
         <v>42734</v>
       </c>
-      <c r="D71" s="3">
-        <v>42762</v>
+      <c r="D71" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>29</v>
       </c>
       <c r="C72" s="2">
-        <v>42734</v>
-      </c>
-      <c r="D72" s="2">
-        <v>42790</v>
+        <v>42713</v>
+      </c>
+      <c r="D72" s="3">
+        <v>42762</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>30</v>
       </c>
       <c r="C73" s="2">
-        <v>42734</v>
-      </c>
-      <c r="D73" s="2">
-        <v>42790</v>
+        <v>42706</v>
+      </c>
+      <c r="D73" s="3">
+        <v>42748</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>30</v>
       </c>
       <c r="C74" s="2">
-        <v>42734</v>
+        <v>42706</v>
       </c>
       <c r="D74" s="3">
-        <v>42762</v>
+        <v>43014</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C75" s="2">
-        <v>42734</v>
-      </c>
-      <c r="D75" s="2">
-        <v>42790</v>
+        <v>42706</v>
+      </c>
+      <c r="D75" s="3">
+        <v>42762</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C76" s="2">
-        <v>42734</v>
-      </c>
-      <c r="D76" s="2">
-        <v>42790</v>
+        <v>42706</v>
+      </c>
+      <c r="D76" s="3">
+        <v>42762</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C77" s="2">
-        <v>42713</v>
+        <v>42706</v>
       </c>
       <c r="D77" s="3">
-        <v>42762</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C78" s="2">
         <v>42706</v>
       </c>
       <c r="D78" s="3">
-        <v>42748</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C79" s="2">
         <v>42706</v>
       </c>
       <c r="D79" s="3">
-        <v>43014</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>33</v>
@@ -3099,12 +3065,12 @@
         <v>42706</v>
       </c>
       <c r="D80" s="3">
-        <v>42762</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>33</v>
@@ -3113,152 +3079,152 @@
         <v>42706</v>
       </c>
       <c r="D81" s="3">
-        <v>42762</v>
+        <v>43014</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C82" s="2">
         <v>42706</v>
       </c>
       <c r="D82" s="3">
-        <v>42790</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C83" s="2">
         <v>42706</v>
       </c>
       <c r="D83" s="3">
-        <v>42825</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84" s="2">
         <v>42706</v>
       </c>
       <c r="D84" s="3">
-        <v>42790</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>34</v>
-      </c>
-      <c r="C85" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D85" s="3">
-        <v>42790</v>
+        <v>36</v>
+      </c>
+      <c r="C85" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D85" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>34</v>
-      </c>
-      <c r="C86" s="2">
+        <v>36</v>
+      </c>
+      <c r="C86" s="3">
         <v>42706</v>
       </c>
       <c r="D86" s="3">
-        <v>43014</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>35</v>
-      </c>
-      <c r="C87" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D87" s="3">
-        <v>43099</v>
+        <v>36</v>
+      </c>
+      <c r="C87" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D87" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>36</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="3">
         <v>42706</v>
       </c>
       <c r="D88" s="3">
-        <v>42972</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>36</v>
       </c>
-      <c r="C89" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D89" s="3">
-        <v>43007</v>
+      <c r="C89" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D89" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C90" s="3">
         <v>42706</v>
       </c>
       <c r="D90" s="2">
-        <v>42825</v>
+        <v>42909</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" s="3">
         <v>42706</v>
       </c>
-      <c r="D91" s="3">
-        <v>42762</v>
+      <c r="D91" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>37</v>
@@ -3272,7 +3238,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>37</v>
@@ -3280,489 +3246,489 @@
       <c r="C93" s="3">
         <v>42706</v>
       </c>
-      <c r="D93" s="3">
-        <v>42762</v>
+      <c r="D93" s="4">
+        <v>42853</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>37</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>42706</v>
       </c>
       <c r="D94" s="2">
-        <v>42790</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C95" s="3">
         <v>42706</v>
       </c>
       <c r="D95" s="2">
-        <v>42909</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C96" s="3">
         <v>42706</v>
       </c>
-      <c r="D96" s="2">
-        <v>42825</v>
+      <c r="D96" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C97" s="3">
         <v>42706</v>
       </c>
       <c r="D97" s="2">
-        <v>42825</v>
+        <v>42909</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C98" s="3">
         <v>42706</v>
       </c>
-      <c r="D98" s="4">
-        <v>42853</v>
+      <c r="D98" s="2">
+        <v>42825</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>38</v>
-      </c>
-      <c r="C99" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D99" s="2">
-        <v>42825</v>
+        <v>41</v>
+      </c>
+      <c r="C99" s="3">
+        <v>42706</v>
+      </c>
+      <c r="D99" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B100">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C100" s="3">
         <v>42706</v>
       </c>
       <c r="D100" s="2">
-        <v>42825</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>40</v>
-      </c>
-      <c r="C101" s="3">
+        <v>42</v>
+      </c>
+      <c r="C101" s="2">
         <v>42706</v>
       </c>
       <c r="D101" s="3">
-        <v>42734</v>
+        <v>42713</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C102" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D102" s="2">
-        <v>42909</v>
+        <v>42713</v>
+      </c>
+      <c r="D102" s="3">
+        <v>42720</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C103" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D103" s="2">
-        <v>42825</v>
+        <v>42720</v>
+      </c>
+      <c r="D103" s="3">
+        <v>42727</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C104" s="3">
-        <v>42706</v>
+        <v>42720</v>
       </c>
       <c r="D104" s="3">
-        <v>42734</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>42</v>
-      </c>
-      <c r="C105" s="3">
-        <v>42706</v>
-      </c>
-      <c r="D105" s="2">
-        <v>43063</v>
+        <v>45</v>
+      </c>
+      <c r="C105" s="2">
+        <v>42710</v>
+      </c>
+      <c r="D105" s="3">
+        <v>42804</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2">
-        <v>42706</v>
+        <v>42811</v>
       </c>
       <c r="D106" s="3">
-        <v>42713</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>44</v>
-      </c>
-      <c r="C107" s="3">
-        <v>42713</v>
+        <v>47</v>
+      </c>
+      <c r="C107" s="2">
+        <v>42839</v>
       </c>
       <c r="D107" s="3">
-        <v>42720</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>45</v>
-      </c>
-      <c r="C108" s="3">
-        <v>42720</v>
+        <v>48</v>
+      </c>
+      <c r="C108" s="2">
+        <v>42860</v>
       </c>
       <c r="D108" s="3">
-        <v>42727</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>45</v>
-      </c>
-      <c r="C109" s="3">
-        <v>42720</v>
+        <v>48</v>
+      </c>
+      <c r="C109" s="2">
+        <v>42860</v>
       </c>
       <c r="D109" s="3">
-        <v>42727</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2">
-        <v>42710</v>
+        <v>42860</v>
       </c>
       <c r="D110" s="3">
-        <v>42804</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2">
-        <v>42811</v>
+        <v>42874</v>
       </c>
       <c r="D111" s="3">
-        <v>42832</v>
+        <v>43070</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2">
-        <v>42839</v>
+        <v>42874</v>
       </c>
       <c r="D112" s="3">
-        <v>42860</v>
+        <v>43070</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>49</v>
       </c>
       <c r="C113" s="2">
-        <v>42860</v>
+        <v>42874</v>
       </c>
       <c r="D113" s="3">
-        <v>42867</v>
+        <v>43070</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C114" s="2">
-        <v>42860</v>
+        <v>43077</v>
       </c>
       <c r="D114" s="3">
-        <v>42867</v>
+        <v>42755</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C115" s="2">
-        <v>42860</v>
+        <v>43077</v>
       </c>
       <c r="D115" s="3">
-        <v>42867</v>
+        <v>42755</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2">
-        <v>42874</v>
-      </c>
-      <c r="D116" s="3">
-        <v>43070</v>
+        <v>42737</v>
+      </c>
+      <c r="D116" s="2">
+        <v>42741</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2">
-        <v>42874</v>
-      </c>
-      <c r="D117" s="3">
-        <v>43070</v>
+        <v>42737</v>
+      </c>
+      <c r="D117" s="2">
+        <v>42748</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2">
-        <v>42874</v>
-      </c>
-      <c r="D118" s="3">
-        <v>43070</v>
+        <v>42737</v>
+      </c>
+      <c r="D118" s="2">
+        <v>42755</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2">
-        <v>43077</v>
-      </c>
-      <c r="D119" s="3">
+        <v>42737</v>
+      </c>
+      <c r="D119" s="2">
         <v>42755</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C120" s="2">
-        <v>43077</v>
-      </c>
-      <c r="D120" s="3">
-        <v>42755</v>
+        <v>42737</v>
+      </c>
+      <c r="D120" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C121" s="2">
         <v>42737</v>
       </c>
       <c r="D121" s="2">
-        <v>42741</v>
+        <v>42811</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2">
         <v>42737</v>
       </c>
       <c r="D122" s="2">
-        <v>42748</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C123" s="2">
         <v>42737</v>
       </c>
       <c r="D123" s="2">
-        <v>42755</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C124" s="2">
         <v>42737</v>
       </c>
       <c r="D124" s="2">
-        <v>42755</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C125" s="2">
-        <v>42737</v>
+        <v>42860</v>
       </c>
       <c r="D125" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2">
-        <v>42737</v>
+        <v>42741</v>
       </c>
       <c r="D126" s="2">
-        <v>42811</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C127" s="2">
-        <v>42737</v>
+        <v>42741</v>
       </c>
       <c r="D127" s="2">
-        <v>42832</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>55</v>
@@ -3771,194 +3737,194 @@
         <v>42737</v>
       </c>
       <c r="D128" s="2">
-        <v>42839</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B129">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C129" s="2">
         <v>42737</v>
       </c>
       <c r="D129" s="2">
-        <v>42846</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B130">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C130" s="2">
-        <v>42860</v>
+        <v>42737</v>
       </c>
       <c r="D130" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>56</v>
       </c>
       <c r="C131" s="2">
-        <v>42741</v>
+        <v>42737</v>
       </c>
       <c r="D131" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B132">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2">
-        <v>42741</v>
+        <v>42737</v>
       </c>
       <c r="D132" s="2">
-        <v>43098</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B133">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2">
         <v>42737</v>
       </c>
-      <c r="D133" s="2">
-        <v>43098</v>
+      <c r="D133" s="4">
+        <v>42853</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B134">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C134" s="2">
         <v>42737</v>
       </c>
-      <c r="D134" s="2">
-        <v>42762</v>
+      <c r="D134" s="4">
+        <v>42944</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B135">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C135" s="2">
         <v>42737</v>
       </c>
-      <c r="D135" s="2">
-        <v>42790</v>
+      <c r="D135" s="4">
+        <v>42944</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B136">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C136" s="2">
         <v>42737</v>
       </c>
       <c r="D136" s="2">
-        <v>42790</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B137">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C137" s="2">
         <v>42737</v>
       </c>
       <c r="D137" s="2">
-        <v>42825</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B138">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C138" s="2">
         <v>42737</v>
       </c>
-      <c r="D138" s="4">
-        <v>42853</v>
+      <c r="D138" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B139">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2">
         <v>42737</v>
       </c>
       <c r="D139" s="4">
-        <v>42944</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B140">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C140" s="2">
         <v>42737</v>
       </c>
-      <c r="D140" s="4">
-        <v>42944</v>
+      <c r="D140" s="2">
+        <v>42881</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B141">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2">
         <v>42737</v>
       </c>
       <c r="D141" s="2">
-        <v>43063</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>62</v>
@@ -3967,40 +3933,40 @@
         <v>42737</v>
       </c>
       <c r="D142" s="2">
-        <v>42762</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B143">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C143" s="2">
         <v>42737</v>
       </c>
       <c r="D143" s="2">
-        <v>42790</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B144">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C144" s="2">
         <v>42737</v>
       </c>
-      <c r="D144" s="4">
-        <v>42853</v>
+      <c r="D144" s="2">
+        <v>42972</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>63</v>
@@ -4009,12 +3975,12 @@
         <v>42737</v>
       </c>
       <c r="D145" s="2">
-        <v>42881</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>63</v>
@@ -4023,236 +3989,236 @@
         <v>42737</v>
       </c>
       <c r="D146" s="2">
-        <v>42881</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B147">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C147" s="2">
         <v>42737</v>
       </c>
       <c r="D147" s="2">
-        <v>42881</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B148">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C148" s="2">
         <v>42737</v>
       </c>
       <c r="D148" s="2">
-        <v>42916</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B149">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D149" s="2">
-        <v>42972</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B150">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C150" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D150" s="2">
-        <v>43007</v>
+        <v>42804</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B151">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D151" s="2">
-        <v>43035</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B152">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D152" s="2">
-        <v>43063</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B153">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C153" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D153" s="2">
-        <v>43063</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B154">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C154" s="2">
         <v>42706</v>
       </c>
       <c r="D154" s="2">
-        <v>42720</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B155">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C155" s="2">
         <v>42706</v>
       </c>
       <c r="D155" s="2">
-        <v>42804</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B156">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C156" s="2">
         <v>42706</v>
       </c>
       <c r="D156" s="2">
-        <v>42818</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B157">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C157" s="2">
         <v>42706</v>
       </c>
       <c r="D157" s="2">
-        <v>42776</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B158">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C158" s="2">
         <v>42706</v>
       </c>
       <c r="D158" s="2">
-        <v>43098</v>
+        <v>42755</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B159">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C159" s="2">
         <v>42706</v>
       </c>
       <c r="D159" s="2">
-        <v>43098</v>
+        <v>42791</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B160">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C160" s="2">
         <v>42706</v>
       </c>
       <c r="D160" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B161">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C161" s="2">
         <v>42706</v>
       </c>
       <c r="D161" s="2">
-        <v>42762</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B162">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C162" s="2">
         <v>42706</v>
       </c>
       <c r="D162" s="2">
-        <v>42853</v>
+        <v>42783</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B163">
         <v>75</v>
@@ -4261,127 +4227,127 @@
         <v>42706</v>
       </c>
       <c r="D163" s="2">
-        <v>42755</v>
+        <v>42804</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B164">
         <v>76</v>
       </c>
       <c r="C164" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D164" s="2">
-        <v>42791</v>
+        <v>42650</v>
+      </c>
+      <c r="D164" s="3">
+        <v>42657</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B165">
         <v>76</v>
       </c>
       <c r="C165" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D165" s="2">
-        <v>42762</v>
+        <v>42650</v>
+      </c>
+      <c r="D165" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B166">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C166" s="2">
         <v>42706</v>
       </c>
-      <c r="D166" s="2">
-        <v>42776</v>
+      <c r="D166" s="3">
+        <v>42755</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B167">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C167" s="2">
         <v>42706</v>
       </c>
-      <c r="D167" s="2">
-        <v>42783</v>
+      <c r="D167" s="3">
+        <v>42825</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B168">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C168" s="2">
         <v>42706</v>
       </c>
-      <c r="D168" s="2">
-        <v>42804</v>
+      <c r="D168" s="3">
+        <v>43035</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B169">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C169" s="2">
-        <v>42650</v>
+        <v>42706</v>
       </c>
       <c r="D169" s="3">
-        <v>42657</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B170">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C170" s="2">
-        <v>42650</v>
+        <v>42706</v>
       </c>
       <c r="D170" s="3">
-        <v>42734</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B171">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C171" s="2">
         <v>42706</v>
       </c>
       <c r="D171" s="3">
-        <v>42755</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B172">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C172" s="2">
         <v>42706</v>
@@ -4392,77 +4358,77 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B173">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C173" s="2">
         <v>42706</v>
       </c>
       <c r="D173" s="3">
-        <v>43035</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B174">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C174" s="2">
         <v>42706</v>
       </c>
       <c r="D174" s="3">
-        <v>42734</v>
+        <v>42769</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B175">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C175" s="2">
         <v>42706</v>
       </c>
       <c r="D175" s="3">
-        <v>42776</v>
+        <v>42804</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B176">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C176" s="2">
         <v>42706</v>
       </c>
       <c r="D176" s="3">
-        <v>42790</v>
+        <v>42797</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B177">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C177" s="2">
         <v>42706</v>
       </c>
       <c r="D177" s="3">
-        <v>42825</v>
+        <v>42797</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B178">
         <v>84</v>
@@ -4471,334 +4437,334 @@
         <v>42706</v>
       </c>
       <c r="D178" s="3">
-        <v>42762</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B179">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C179" s="2">
         <v>42706</v>
       </c>
       <c r="D179" s="3">
-        <v>42769</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B180">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C180" s="2">
         <v>42706</v>
       </c>
       <c r="D180" s="3">
-        <v>42804</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B181">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C181" s="2">
         <v>42706</v>
       </c>
       <c r="D181" s="3">
-        <v>42797</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B182">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C182" s="2">
         <v>42706</v>
       </c>
       <c r="D182" s="3">
-        <v>42797</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B183">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C183" s="2">
-        <v>42706</v>
+        <v>42769</v>
       </c>
       <c r="D183" s="3">
-        <v>42853</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B184">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C184" s="2">
-        <v>42706</v>
+        <v>42783</v>
       </c>
       <c r="D184" s="3">
-        <v>42895</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B185">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C185" s="2">
-        <v>42706</v>
+        <v>42797</v>
       </c>
       <c r="D185" s="3">
-        <v>42825</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B186">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C186" s="2">
-        <v>42706</v>
+        <v>42860</v>
       </c>
       <c r="D186" s="3">
-        <v>42825</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B187">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C187" s="2">
-        <v>42706</v>
+        <v>42860</v>
       </c>
       <c r="D187" s="3">
-        <v>42944</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B188">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C188" s="2">
-        <v>42769</v>
+        <v>42888</v>
       </c>
       <c r="D188" s="3">
-        <v>42776</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B189">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C189" s="2">
-        <v>42783</v>
+        <v>42902</v>
       </c>
       <c r="D189" s="3">
-        <v>42790</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B190">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C190" s="2">
-        <v>42797</v>
-      </c>
-      <c r="D190" s="3">
-        <v>42853</v>
+        <v>42923</v>
+      </c>
+      <c r="D190" s="2">
+        <v>42923</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B191">
         <v>92</v>
       </c>
       <c r="C191" s="2">
-        <v>42860</v>
-      </c>
-      <c r="D191" s="3">
-        <v>42881</v>
+        <v>42930</v>
+      </c>
+      <c r="D191" s="2">
+        <v>42930</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B192">
         <v>92</v>
       </c>
       <c r="C192" s="2">
-        <v>42860</v>
+        <v>42937</v>
       </c>
       <c r="D192" s="3">
-        <v>42881</v>
+        <v>42965</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B193">
         <v>93</v>
       </c>
       <c r="C193" s="2">
-        <v>42888</v>
-      </c>
-      <c r="D193" s="3">
-        <v>42895</v>
+        <v>42937</v>
+      </c>
+      <c r="D193" s="2">
+        <v>42937</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B194">
         <v>93</v>
       </c>
       <c r="C194" s="2">
-        <v>42902</v>
+        <v>42937</v>
       </c>
       <c r="D194" s="3">
-        <v>42916</v>
+        <v>42986</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B195">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C195" s="2">
-        <v>42923</v>
-      </c>
-      <c r="D195" s="2">
-        <v>42923</v>
+        <v>42965</v>
+      </c>
+      <c r="D195" s="3">
+        <v>42986</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B196">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C196" s="2">
-        <v>42930</v>
+        <v>42706</v>
       </c>
       <c r="D196" s="2">
-        <v>42930</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B197">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C197" s="2">
-        <v>42937</v>
-      </c>
-      <c r="D197" s="3">
-        <v>42965</v>
+        <v>42706</v>
+      </c>
+      <c r="D197" s="2">
+        <v>42818</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B198">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C198" s="2">
-        <v>42937</v>
+        <v>42706</v>
       </c>
       <c r="D198" s="2">
-        <v>42937</v>
+        <v>42819</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B199">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C199" s="2">
-        <v>42937</v>
-      </c>
-      <c r="D199" s="3">
-        <v>42986</v>
+        <v>42706</v>
+      </c>
+      <c r="D199" s="2">
+        <v>42916</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B200">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C200" s="2">
-        <v>42965</v>
-      </c>
-      <c r="D200" s="3">
-        <v>42986</v>
+        <v>42706</v>
+      </c>
+      <c r="D200" s="2">
+        <v>42853</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B201">
         <v>96</v>
       </c>
       <c r="C201" s="2">
-        <v>42706</v>
+        <v>42797</v>
       </c>
       <c r="D201" s="2">
-        <v>42818</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B202">
         <v>96</v>
@@ -4812,7 +4778,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B203">
         <v>96</v>
@@ -4821,26 +4787,26 @@
         <v>42706</v>
       </c>
       <c r="D203" s="2">
-        <v>42819</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B204">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C204" s="2">
-        <v>42706</v>
+        <v>42769</v>
       </c>
       <c r="D204" s="2">
-        <v>42916</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B205">
         <v>97</v>
@@ -4849,32 +4815,32 @@
         <v>42706</v>
       </c>
       <c r="D205" s="2">
-        <v>42853</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B206">
         <v>97</v>
       </c>
       <c r="C206" s="2">
-        <v>42797</v>
+        <v>42769</v>
       </c>
       <c r="D206" s="2">
-        <v>42916</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B207">
         <v>97</v>
       </c>
       <c r="C207" s="2">
-        <v>42706</v>
+        <v>42797</v>
       </c>
       <c r="D207" s="2">
         <v>42818</v>
@@ -4882,265 +4848,265 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B208">
         <v>97</v>
       </c>
       <c r="C208" s="2">
-        <v>42706</v>
+        <v>42832</v>
       </c>
       <c r="D208" s="2">
-        <v>42853</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B209">
         <v>97</v>
       </c>
       <c r="C209" s="2">
-        <v>42769</v>
+        <v>42979</v>
       </c>
       <c r="D209" s="2">
-        <v>42853</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B210">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C210" s="2">
-        <v>42706</v>
+        <v>42979</v>
       </c>
       <c r="D210" s="2">
-        <v>42762</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B211">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C211" s="2">
-        <v>42769</v>
+        <v>43070</v>
       </c>
       <c r="D211" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B212">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C212" s="2">
-        <v>42797</v>
+        <v>42706</v>
       </c>
       <c r="D212" s="2">
-        <v>42818</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B213">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C213" s="2">
-        <v>42832</v>
+        <v>42769</v>
       </c>
       <c r="D213" s="2">
-        <v>42972</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B214">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C214" s="2">
-        <v>42979</v>
+        <v>42797</v>
       </c>
       <c r="D214" s="2">
-        <v>43063</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B215">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C215" s="2">
-        <v>42979</v>
+        <v>42832</v>
       </c>
       <c r="D215" s="2">
-        <v>43063</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B216">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C216" s="2">
-        <v>43070</v>
+        <v>42979</v>
       </c>
       <c r="D216" s="2">
-        <v>43098</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B217">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C217" s="2">
-        <v>42706</v>
+        <v>42979</v>
       </c>
       <c r="D217" s="2">
-        <v>42762</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B218">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C218" s="2">
-        <v>42769</v>
+        <v>43070</v>
       </c>
       <c r="D218" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B219">
         <v>98</v>
       </c>
       <c r="C219" s="2">
-        <v>42797</v>
-      </c>
-      <c r="D219" s="2">
-        <v>42818</v>
+        <v>42706</v>
+      </c>
+      <c r="D219" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B220">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C220" s="2">
-        <v>42832</v>
-      </c>
-      <c r="D220" s="2">
-        <v>42972</v>
+        <v>42706</v>
+      </c>
+      <c r="D220" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B221">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C221" s="2">
-        <v>42979</v>
-      </c>
-      <c r="D221" s="2">
-        <v>43063</v>
+        <v>42706</v>
+      </c>
+      <c r="D221" s="3">
+        <v>43098</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B222">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C222" s="2">
-        <v>42979</v>
-      </c>
-      <c r="D222" s="2">
-        <v>43063</v>
+        <v>42706</v>
+      </c>
+      <c r="D222" s="3">
+        <v>42734</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B223">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C223" s="2">
-        <v>43070</v>
-      </c>
-      <c r="D223" s="2">
-        <v>43098</v>
+        <v>42741</v>
+      </c>
+      <c r="D223" s="3">
+        <v>42790</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B224">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C224" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D224" s="3">
-        <v>42734</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B225">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C225" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D225" s="3">
-        <v>42734</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B226">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C226" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D226" s="3">
         <v>43098</v>
@@ -5148,41 +5114,41 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B227">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C227" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D227" s="3">
-        <v>42734</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B228">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C228" s="2">
         <v>42741</v>
       </c>
       <c r="D228" s="3">
-        <v>42790</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B229">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C229" s="2">
-        <v>42741</v>
+        <v>42797</v>
       </c>
       <c r="D229" s="3">
         <v>43098</v>
@@ -5190,164 +5156,164 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B230">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C230" s="2">
         <v>42741</v>
       </c>
       <c r="D230" s="3">
-        <v>43098</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B231">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C231" s="2">
         <v>42741</v>
       </c>
       <c r="D231" s="3">
-        <v>43098</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B232">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C232" s="2">
         <v>42741</v>
       </c>
       <c r="D232" s="3">
-        <v>42825</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B233">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C233" s="2">
         <v>42741</v>
       </c>
       <c r="D233" s="3">
-        <v>42825</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B234">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C234" s="2">
-        <v>42797</v>
-      </c>
-      <c r="D234" s="3">
-        <v>43098</v>
+        <v>42706</v>
+      </c>
+      <c r="D234" s="2">
+        <v>43099</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B235">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C235" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D235" s="3">
-        <v>42916</v>
+        <v>42706</v>
+      </c>
+      <c r="D235" s="2">
+        <v>43099</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B236">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C236" s="2">
         <v>42741</v>
       </c>
-      <c r="D236" s="3">
-        <v>42916</v>
+      <c r="D236" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B237">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C237" s="2">
         <v>42741</v>
       </c>
-      <c r="D237" s="3">
-        <v>42916</v>
+      <c r="D237" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B238">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C238" s="2">
         <v>42741</v>
       </c>
-      <c r="D238" s="3">
-        <v>42916</v>
+      <c r="D238" s="2">
+        <v>42762</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B239">
         <v>110</v>
       </c>
       <c r="C239" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D239" s="2">
-        <v>43099</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B240">
         <v>110</v>
       </c>
       <c r="C240" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D240" s="2">
-        <v>43099</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B241">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C241" s="2">
         <v>42741</v>
@@ -5358,21 +5324,21 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B242">
         <v>111</v>
       </c>
       <c r="C242" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D242" s="2">
-        <v>42762</v>
+        <v>43071</v>
+      </c>
+      <c r="D242" s="3">
+        <v>43099</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B243">
         <v>111</v>
@@ -5380,212 +5346,212 @@
       <c r="C243" s="2">
         <v>42741</v>
       </c>
-      <c r="D243" s="2">
-        <v>42762</v>
+      <c r="D243" s="3">
+        <v>42853</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B244">
         <v>111</v>
       </c>
       <c r="C244" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D244" s="2">
-        <v>42762</v>
+        <v>42769</v>
+      </c>
+      <c r="D244" s="3">
+        <v>42972</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B245">
         <v>111</v>
       </c>
       <c r="C245" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D245" s="2">
-        <v>42762</v>
+        <v>42797</v>
+      </c>
+      <c r="D245" s="3">
+        <v>43091</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B246">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C246" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D246" s="2">
-        <v>42762</v>
+        <v>42769</v>
+      </c>
+      <c r="D246" s="3">
+        <v>43035</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B247">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C247" s="2">
-        <v>43071</v>
+        <v>42741</v>
       </c>
       <c r="D247" s="3">
-        <v>43099</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B248">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C248" s="2">
-        <v>42741</v>
+        <v>42769</v>
       </c>
       <c r="D248" s="3">
-        <v>42853</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B249">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C249" s="2">
-        <v>42769</v>
+        <v>42797</v>
       </c>
       <c r="D249" s="3">
-        <v>42972</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B250">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C250" s="2">
-        <v>42797</v>
-      </c>
-      <c r="D250" s="3">
-        <v>43091</v>
+        <v>42706</v>
+      </c>
+      <c r="D250" s="2">
+        <v>42916</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B251">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C251" s="2">
-        <v>42769</v>
-      </c>
-      <c r="D251" s="3">
-        <v>43035</v>
+        <v>42706</v>
+      </c>
+      <c r="D251" s="2">
+        <v>42790</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B252">
         <v>114</v>
       </c>
       <c r="C252" s="2">
-        <v>42741</v>
-      </c>
-      <c r="D252" s="3">
-        <v>42790</v>
+        <v>42706</v>
+      </c>
+      <c r="D252" s="2">
+        <v>42818</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B253">
         <v>114</v>
       </c>
       <c r="C253" s="2">
-        <v>42769</v>
-      </c>
-      <c r="D253" s="3">
-        <v>42790</v>
+        <v>42706</v>
+      </c>
+      <c r="D253" s="2">
+        <v>42734</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B254">
         <v>114</v>
       </c>
       <c r="C254" s="2">
-        <v>42797</v>
-      </c>
-      <c r="D254" s="3">
-        <v>43098</v>
+        <v>42706</v>
+      </c>
+      <c r="D254" s="2">
+        <v>42734</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B255">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C255" s="2">
         <v>42706</v>
       </c>
       <c r="D255" s="2">
-        <v>42916</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B256">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C256" s="2">
         <v>42706</v>
       </c>
       <c r="D256" s="2">
-        <v>42790</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B257">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C257" s="2">
         <v>42706</v>
       </c>
       <c r="D257" s="2">
-        <v>42818</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B258">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C258" s="2">
         <v>42706</v>
@@ -5596,38 +5562,38 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B259">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C259" s="2">
         <v>42706</v>
       </c>
       <c r="D259" s="2">
-        <v>42734</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B260">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C260" s="2">
         <v>42706</v>
       </c>
       <c r="D260" s="2">
-        <v>42734</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B261">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C261" s="2">
         <v>42706</v>
@@ -5638,80 +5604,80 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B262">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C262" s="2">
         <v>42706</v>
       </c>
       <c r="D262" s="2">
-        <v>42734</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B263">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C263" s="2">
         <v>42706</v>
       </c>
       <c r="D263" s="2">
-        <v>42734</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B264">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C264" s="2">
         <v>42706</v>
       </c>
       <c r="D264" s="2">
-        <v>42916</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B265">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C265" s="2">
         <v>42706</v>
       </c>
       <c r="D265" s="2">
-        <v>43098</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B266">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C266" s="2">
         <v>42706</v>
       </c>
       <c r="D266" s="2">
-        <v>42734</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B267">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C267" s="2">
         <v>42706</v>
@@ -5722,21 +5688,21 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B268">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C268" s="2">
         <v>42706</v>
       </c>
       <c r="D268" s="2">
-        <v>42853</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B269">
         <v>115</v>
@@ -5745,12 +5711,12 @@
         <v>42706</v>
       </c>
       <c r="D269" s="2">
-        <v>42762</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B270">
         <v>115</v>
@@ -5759,26 +5725,26 @@
         <v>42706</v>
       </c>
       <c r="D270" s="2">
-        <v>42818</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B271">
         <v>115</v>
       </c>
       <c r="C271" s="2">
-        <v>42706</v>
+        <v>42705</v>
       </c>
       <c r="D271" s="2">
-        <v>42818</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B272">
         <v>115</v>
@@ -5787,12 +5753,12 @@
         <v>42706</v>
       </c>
       <c r="D272" s="2">
-        <v>42853</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B273">
         <v>115</v>
@@ -5806,38 +5772,38 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B274">
         <v>116</v>
       </c>
       <c r="C274" s="2">
-        <v>42706</v>
+        <v>42705</v>
       </c>
       <c r="D274" s="2">
-        <v>42734</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B275">
-        <v>116</v>
-      </c>
-      <c r="C275" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D275" s="2">
-        <v>42853</v>
+        <v>117</v>
+      </c>
+      <c r="C275" s="5">
+        <v>42705</v>
+      </c>
+      <c r="D275" s="5">
+        <v>43098</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B276">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C276" s="2">
         <v>42705</v>
@@ -5848,35 +5814,35 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B277">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C277" s="2">
-        <v>42706</v>
+        <v>42705</v>
       </c>
       <c r="D277" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B278">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C278" s="2">
-        <v>42706</v>
+        <v>42705</v>
       </c>
       <c r="D278" s="2">
-        <v>42881</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B279">
         <v>117</v>
@@ -5890,24 +5856,24 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B280">
-        <v>118</v>
-      </c>
-      <c r="C280" s="5">
+        <v>117</v>
+      </c>
+      <c r="C280" s="2">
         <v>42705</v>
       </c>
-      <c r="D280" s="5">
+      <c r="D280" s="2">
         <v>43098</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B281">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C281" s="2">
         <v>42705</v>
@@ -5918,10 +5884,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B282">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C282" s="2">
         <v>42705</v>
@@ -5932,10 +5898,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B283">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C283" s="2">
         <v>42705</v>
@@ -5946,7 +5912,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B284">
         <v>118</v>
@@ -5960,7 +5926,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B285">
         <v>118</v>
@@ -5974,55 +5940,55 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B286">
         <v>118</v>
       </c>
       <c r="C286" s="2">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="D286" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B287">
         <v>118</v>
       </c>
       <c r="C287" s="2">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="D287" s="2">
-        <v>43098</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B288">
         <v>118</v>
       </c>
       <c r="C288" s="2">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="D288" s="2">
-        <v>43098</v>
+        <v>43063</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B289">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C289" s="2">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="D289" s="2">
         <v>43098</v>
@@ -6030,21 +5996,21 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B290">
         <v>119</v>
       </c>
       <c r="C290" s="2">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="D290" s="2">
-        <v>43098</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B291">
         <v>119</v>
@@ -6053,12 +6019,12 @@
         <v>42706</v>
       </c>
       <c r="D291" s="2">
-        <v>42790</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B292">
         <v>119</v>
@@ -6067,40 +6033,40 @@
         <v>42706</v>
       </c>
       <c r="D292" s="2">
-        <v>42881</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B293">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C293" s="2">
         <v>42706</v>
       </c>
       <c r="D293" s="2">
-        <v>43063</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B294">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C294" s="2">
         <v>42706</v>
       </c>
       <c r="D294" s="2">
-        <v>43098</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B295">
         <v>120</v>
@@ -6114,77 +6080,77 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B296">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C296" s="2">
         <v>42706</v>
       </c>
       <c r="D296" s="2">
-        <v>42972</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B297">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C297" s="2">
         <v>42706</v>
       </c>
       <c r="D297" s="2">
-        <v>43035</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B298">
         <v>121</v>
       </c>
       <c r="C298" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D298" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B299">
         <v>121</v>
       </c>
       <c r="C299" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D299" s="2">
-        <v>42853</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B300">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C300" s="2">
         <v>42706</v>
       </c>
       <c r="D300" s="2">
-        <v>42916</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B301">
         <v>122</v>
@@ -6198,21 +6164,21 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B302">
         <v>122</v>
       </c>
       <c r="C302" s="2">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="D302" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B303">
         <v>122</v>
@@ -6226,21 +6192,21 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B304">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C304" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D304" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B305">
         <v>123</v>
@@ -6249,130 +6215,130 @@
         <v>42706</v>
       </c>
       <c r="D305" s="2">
-        <v>42790</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B306">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C306" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D306" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B307">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C307" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D307" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B308">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C308" s="2">
-        <v>42741</v>
+        <v>42706</v>
       </c>
       <c r="D308" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B309">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C309" s="2">
         <v>42706</v>
       </c>
       <c r="D309" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B310">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C310" s="2">
         <v>42706</v>
       </c>
       <c r="D310" s="2">
-        <v>42881</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B311">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C311" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D311" s="2">
-        <v>43098</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B312">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C312" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D312" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B313">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C313" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D313" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B314">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C314" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D314" s="2">
         <v>43098</v>
@@ -6380,52 +6346,52 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B315">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C315" s="2">
         <v>42706</v>
       </c>
       <c r="D315" s="2">
-        <v>42762</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B316">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C316" s="2">
         <v>42706</v>
       </c>
       <c r="D316" s="2">
-        <v>42818</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B317">
         <v>128</v>
       </c>
       <c r="C317" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D317" s="2">
-        <v>43098</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B318">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C318" s="2">
         <v>42737</v>
@@ -6436,10 +6402,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B319">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C319" s="2">
         <v>42737</v>
@@ -6450,35 +6416,35 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B320">
         <v>129</v>
       </c>
       <c r="C320" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D320" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B321">
         <v>129</v>
       </c>
       <c r="C321" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D321" s="2">
-        <v>42916</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B322">
         <v>129</v>
@@ -6487,180 +6453,180 @@
         <v>42706</v>
       </c>
       <c r="D322" s="2">
-        <v>42916</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B323">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C323" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D323" s="2">
-        <v>43098</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B324">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C324" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D324" s="2">
-        <v>43098</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B325">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C325" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D325" s="2">
-        <v>43098</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B326">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C326" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D326" s="2">
-        <v>43098</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B327">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C327" s="2">
         <v>42706</v>
       </c>
       <c r="D327" s="2">
-        <v>42762</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B328">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C328" s="2">
         <v>42706</v>
       </c>
       <c r="D328" s="2">
-        <v>42790</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B329">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C329" s="2">
         <v>42706</v>
       </c>
       <c r="D329" s="2">
-        <v>42818</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B330">
         <v>130</v>
       </c>
       <c r="C330" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D330" s="2">
-        <v>42818</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B331">
         <v>130</v>
       </c>
       <c r="C331" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D331" s="2">
-        <v>42818</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B332">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C332" s="2">
         <v>42706</v>
       </c>
       <c r="D332" s="2">
-        <v>42853</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B333">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C333" s="2">
         <v>42706</v>
       </c>
       <c r="D333" s="2">
-        <v>42881</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B334">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C334" s="2">
         <v>42706</v>
       </c>
       <c r="D334" s="2">
-        <v>42881</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B335">
         <v>131</v>
@@ -6674,21 +6640,21 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B336">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C336" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D336" s="2">
-        <v>43099</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B337">
         <v>132</v>
@@ -6702,7 +6668,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B338">
         <v>132</v>
@@ -6711,12 +6677,12 @@
         <v>42706</v>
       </c>
       <c r="D338" s="2">
-        <v>42762</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B339">
         <v>132</v>
@@ -6725,26 +6691,26 @@
         <v>42706</v>
       </c>
       <c r="D339" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B340">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C340" s="2">
-        <v>42737</v>
+        <v>42706</v>
       </c>
       <c r="D340" s="2">
-        <v>43099</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B341">
         <v>133</v>
@@ -6758,7 +6724,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B342">
         <v>133</v>
@@ -6767,12 +6733,12 @@
         <v>42706</v>
       </c>
       <c r="D342" s="2">
-        <v>42762</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B343">
         <v>133</v>
@@ -6781,26 +6747,26 @@
         <v>42706</v>
       </c>
       <c r="D343" s="2">
-        <v>42818</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B344">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C344" s="2">
         <v>42706</v>
       </c>
       <c r="D344" s="2">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B345">
         <v>134</v>
@@ -6809,46 +6775,46 @@
         <v>42706</v>
       </c>
       <c r="D345" s="2">
-        <v>42762</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B346">
         <v>134</v>
       </c>
       <c r="C346" s="2">
-        <v>42706</v>
+        <v>42769</v>
       </c>
       <c r="D346" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B347">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C347" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D347" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B348">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C348" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D348" s="2">
         <v>43098</v>
@@ -6856,41 +6822,41 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B349">
         <v>135</v>
       </c>
       <c r="C349" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D349" s="2">
-        <v>42762</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B350">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C350" s="2">
-        <v>42706</v>
+        <v>42737</v>
       </c>
       <c r="D350" s="2">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B351">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C351" s="2">
-        <v>42769</v>
+        <v>42737</v>
       </c>
       <c r="D351" s="2">
         <v>43098</v>
@@ -6898,133 +6864,133 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B352">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C352" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D352" s="2">
-        <v>43098</v>
+        <v>42706</v>
+      </c>
+      <c r="D352" s="3">
+        <v>43462</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B353">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C353" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D353" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D353" s="3">
         <v>43098</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B354">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C354" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D354" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D354" s="3">
         <v>43098</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B355">
         <v>137</v>
       </c>
       <c r="C355" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D355" s="2">
+        <v>42706</v>
+      </c>
+      <c r="D355" s="3">
         <v>43098</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B356">
         <v>137</v>
       </c>
       <c r="C356" s="2">
-        <v>42737</v>
-      </c>
-      <c r="D356" s="2">
-        <v>43098</v>
+        <v>42706</v>
+      </c>
+      <c r="D356" s="3">
+        <v>42790</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B357">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C357" s="2">
         <v>42706</v>
       </c>
       <c r="D357" s="3">
-        <v>43462</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B358">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C358" s="2">
         <v>42706</v>
       </c>
       <c r="D358" s="3">
-        <v>43098</v>
+        <v>43371</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B359">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C359" s="2">
         <v>42706</v>
       </c>
       <c r="D359" s="3">
-        <v>43098</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B360">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C360" s="2">
         <v>42706</v>
       </c>
       <c r="D360" s="3">
-        <v>43098</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B361">
         <v>138</v>
@@ -7033,12 +6999,12 @@
         <v>42706</v>
       </c>
       <c r="D361" s="3">
-        <v>42790</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B362">
         <v>138</v>
@@ -7047,12 +7013,12 @@
         <v>42706</v>
       </c>
       <c r="D362" s="3">
-        <v>43280</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B363">
         <v>138</v>
@@ -7061,60 +7027,60 @@
         <v>42706</v>
       </c>
       <c r="D363" s="3">
-        <v>43371</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B364">
         <v>138</v>
       </c>
       <c r="C364" s="2">
-        <v>42706</v>
+        <v>42463</v>
       </c>
       <c r="D364" s="3">
-        <v>43462</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B365">
         <v>138</v>
       </c>
       <c r="C365" s="2">
-        <v>42706</v>
+        <v>42463</v>
       </c>
       <c r="D365" s="3">
-        <v>43462</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B366">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C366" s="2">
-        <v>42706</v>
+        <v>42463</v>
       </c>
       <c r="D366" s="3">
-        <v>42916</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B367">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C367" s="2">
-        <v>42706</v>
+        <v>42463</v>
       </c>
       <c r="D367" s="3">
         <v>43098</v>
@@ -7122,91 +7088,91 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B368">
         <v>139</v>
       </c>
       <c r="C368" s="2">
-        <v>42706</v>
+        <v>42463</v>
       </c>
       <c r="D368" s="3">
-        <v>42825</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B369">
         <v>139</v>
       </c>
       <c r="C369" s="2">
-        <v>42463</v>
+        <v>42706</v>
       </c>
       <c r="D369" s="3">
-        <v>43098</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B370">
         <v>139</v>
       </c>
       <c r="C370" s="2">
-        <v>42463</v>
+        <v>43101</v>
       </c>
       <c r="D370" s="3">
-        <v>43098</v>
+        <v>43465</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B371">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C371" s="2">
-        <v>42463</v>
+        <v>42706</v>
       </c>
       <c r="D371" s="3">
-        <v>43098</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B372">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C372" s="2">
-        <v>42463</v>
+        <v>42706</v>
       </c>
       <c r="D372" s="3">
-        <v>43098</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B373">
         <v>140</v>
       </c>
       <c r="C373" s="2">
-        <v>42463</v>
+        <v>42706</v>
       </c>
       <c r="D373" s="3">
-        <v>43098</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B374">
         <v>140</v>
@@ -7215,236 +7181,236 @@
         <v>42706</v>
       </c>
       <c r="D374" s="3">
-        <v>43280</v>
+        <v>43035</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B375">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C375" s="2">
-        <v>43101</v>
+        <v>42706</v>
       </c>
       <c r="D375" s="3">
-        <v>43465</v>
+        <v>42748</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B376">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C376" s="2">
         <v>42706</v>
       </c>
       <c r="D376" s="3">
-        <v>43035</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B377">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C377" s="2">
         <v>42706</v>
       </c>
       <c r="D377" s="3">
-        <v>43035</v>
+        <v>42776</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B378">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C378" s="2">
         <v>42706</v>
       </c>
       <c r="D378" s="3">
-        <v>43035</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B379">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C379" s="2">
         <v>42706</v>
       </c>
       <c r="D379" s="3">
-        <v>43035</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B380">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C380" s="2">
         <v>42706</v>
       </c>
       <c r="D380" s="3">
-        <v>42748</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B381">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C381" s="2">
         <v>42706</v>
       </c>
       <c r="D381" s="3">
-        <v>42762</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B382">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C382" s="2">
         <v>42706</v>
       </c>
       <c r="D382" s="3">
-        <v>42776</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B383">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C383" s="2">
         <v>42706</v>
       </c>
       <c r="D383" s="3">
-        <v>42790</v>
+        <v>42923</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B384">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C384" s="2">
         <v>42706</v>
       </c>
       <c r="D384" s="3">
-        <v>42818</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B385">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C385" s="2">
         <v>42706</v>
       </c>
       <c r="D385" s="3">
-        <v>42839</v>
+        <v>42804</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B386">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C386" s="2">
         <v>42706</v>
       </c>
       <c r="D386" s="3">
-        <v>42853</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B387">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C387" s="2">
-        <v>42706</v>
+        <v>42769</v>
       </c>
       <c r="D387" s="3">
-        <v>42895</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B388">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C388" s="2">
         <v>42706</v>
       </c>
       <c r="D388" s="3">
-        <v>42923</v>
+        <v>42811</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B389">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C389" s="2">
         <v>42706</v>
       </c>
       <c r="D389" s="3">
-        <v>42937</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B390">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C390" s="2">
         <v>42706</v>
       </c>
       <c r="D390" s="3">
-        <v>42804</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B391">
         <v>150</v>
@@ -7453,26 +7419,26 @@
         <v>42706</v>
       </c>
       <c r="D391" s="3">
-        <v>42790</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B392">
         <v>150</v>
       </c>
       <c r="C392" s="2">
-        <v>42769</v>
+        <v>42706</v>
       </c>
       <c r="D392" s="3">
-        <v>42825</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B393">
         <v>150</v>
@@ -7481,12 +7447,12 @@
         <v>42706</v>
       </c>
       <c r="D393" s="3">
-        <v>42811</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B394">
         <v>150</v>
@@ -7495,12 +7461,12 @@
         <v>42706</v>
       </c>
       <c r="D394" s="3">
-        <v>42874</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B395">
         <v>151</v>
@@ -7509,12 +7475,12 @@
         <v>42706</v>
       </c>
       <c r="D395" s="3">
-        <v>42832</v>
+        <v>42986</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B396">
         <v>151</v>
@@ -7523,12 +7489,12 @@
         <v>42706</v>
       </c>
       <c r="D396" s="3">
-        <v>42839</v>
+        <v>42993</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B397">
         <v>151</v>
@@ -7537,12 +7503,12 @@
         <v>42706</v>
       </c>
       <c r="D397" s="3">
-        <v>42846</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B398">
         <v>151</v>
@@ -7551,12 +7517,12 @@
         <v>42706</v>
       </c>
       <c r="D398" s="3">
-        <v>42916</v>
+        <v>43084</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B399">
         <v>151</v>
@@ -7565,12 +7531,12 @@
         <v>42706</v>
       </c>
       <c r="D399" s="3">
-        <v>42951</v>
+        <v>43105</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B400">
         <v>152</v>
@@ -7579,12 +7545,12 @@
         <v>42706</v>
       </c>
       <c r="D400" s="3">
-        <v>42986</v>
+        <v>42748</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B401">
         <v>152</v>
@@ -7593,12 +7559,12 @@
         <v>42706</v>
       </c>
       <c r="D401" s="3">
-        <v>42993</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B402">
         <v>152</v>
@@ -7607,12 +7573,12 @@
         <v>42706</v>
       </c>
       <c r="D402" s="3">
-        <v>43000</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B403">
         <v>152</v>
@@ -7621,40 +7587,40 @@
         <v>42706</v>
       </c>
       <c r="D403" s="3">
-        <v>43084</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B404">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C404" s="2">
         <v>42706</v>
       </c>
       <c r="D404" s="3">
-        <v>43105</v>
+        <v>42783</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B405">
         <v>153</v>
       </c>
       <c r="C405" s="2">
-        <v>42706</v>
+        <v>42769</v>
       </c>
       <c r="D405" s="3">
-        <v>42748</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B406">
         <v>153</v>
@@ -7663,12 +7629,12 @@
         <v>42706</v>
       </c>
       <c r="D406" s="3">
-        <v>43098</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B407">
         <v>153</v>
@@ -7682,21 +7648,21 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B408">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C408" s="2">
         <v>42706</v>
       </c>
       <c r="D408" s="3">
-        <v>43098</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B409">
         <v>154</v>
@@ -7705,26 +7671,26 @@
         <v>42706</v>
       </c>
       <c r="D409" s="3">
-        <v>42783</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B410">
         <v>154</v>
       </c>
       <c r="C410" s="2">
-        <v>42769</v>
+        <v>42860</v>
       </c>
       <c r="D410" s="3">
-        <v>42825</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B411">
         <v>154</v>
@@ -7733,26 +7699,26 @@
         <v>42706</v>
       </c>
       <c r="D411" s="3">
-        <v>42874</v>
+        <v>42860</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B412">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C412" s="2">
         <v>42706</v>
       </c>
       <c r="D412" s="3">
-        <v>42790</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B413">
         <v>155</v>
@@ -7761,12 +7727,12 @@
         <v>42706</v>
       </c>
       <c r="D413" s="3">
-        <v>42839</v>
+        <v>42993</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B414">
         <v>155</v>
@@ -7775,26 +7741,26 @@
         <v>42706</v>
       </c>
       <c r="D414" s="3">
-        <v>42853</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B415">
         <v>155</v>
       </c>
       <c r="C415" s="2">
-        <v>42860</v>
-      </c>
-      <c r="D415" s="3">
-        <v>42916</v>
+        <v>42706</v>
+      </c>
+      <c r="D415" s="2">
+        <v>43084</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B416">
         <v>155</v>
@@ -7803,40 +7769,40 @@
         <v>42706</v>
       </c>
       <c r="D416" s="3">
-        <v>42860</v>
+        <v>43126</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B417">
         <v>156</v>
       </c>
       <c r="C417" s="2">
-        <v>42706</v>
+        <v>42738</v>
       </c>
       <c r="D417" s="3">
-        <v>42951</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B418">
         <v>156</v>
       </c>
       <c r="C418" s="2">
-        <v>42706</v>
+        <v>42738</v>
       </c>
       <c r="D418" s="3">
-        <v>42993</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B419">
         <v>156</v>
@@ -7845,194 +7811,194 @@
         <v>42706</v>
       </c>
       <c r="D419" s="3">
-        <v>43000</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B420">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C420" s="2">
-        <v>42706</v>
-      </c>
-      <c r="D420" s="2">
-        <v>43084</v>
+        <v>42856</v>
+      </c>
+      <c r="D420" s="3">
+        <v>43737</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B421">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C421" s="2">
-        <v>42706</v>
+        <v>42856</v>
       </c>
       <c r="D421" s="3">
-        <v>43126</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B422">
         <v>157</v>
       </c>
       <c r="C422" s="2">
-        <v>42738</v>
+        <v>42887</v>
       </c>
       <c r="D422" s="3">
-        <v>42762</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B423">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C423" s="2">
-        <v>42738</v>
+        <v>42795</v>
       </c>
       <c r="D423" s="3">
-        <v>42790</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B424">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C424" s="2">
-        <v>42706</v>
+        <v>42795</v>
       </c>
       <c r="D424" s="3">
-        <v>42790</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B425">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C425" s="2">
-        <v>42856</v>
+        <v>42738</v>
       </c>
       <c r="D425" s="3">
-        <v>43737</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B426">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C426" s="2">
         <v>42856</v>
       </c>
       <c r="D426" s="3">
-        <v>43099</v>
+        <v>42886</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B427">
-        <v>158</v>
-      </c>
-      <c r="C427" s="2">
-        <v>42887</v>
+        <v>160</v>
+      </c>
+      <c r="C427" s="3">
+        <v>42705</v>
       </c>
       <c r="D427" s="3">
-        <v>43099</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B428">
-        <v>159</v>
-      </c>
-      <c r="C428" s="2">
-        <v>42795</v>
+        <v>161</v>
+      </c>
+      <c r="C428" s="3">
+        <v>42705</v>
       </c>
       <c r="D428" s="3">
-        <v>42825</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B429">
-        <v>159</v>
-      </c>
-      <c r="C429" s="2">
-        <v>42795</v>
+        <v>161</v>
+      </c>
+      <c r="C429" s="3">
+        <v>42705</v>
       </c>
       <c r="D429" s="3">
-        <v>43099</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B430">
-        <v>160</v>
-      </c>
-      <c r="C430" s="2">
-        <v>42738</v>
+        <v>161</v>
+      </c>
+      <c r="C430" s="3">
+        <v>42705</v>
       </c>
       <c r="D430" s="3">
-        <v>42794</v>
+        <v>42756</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B431">
-        <v>160</v>
-      </c>
-      <c r="C431" s="2">
-        <v>42856</v>
+        <v>162</v>
+      </c>
+      <c r="C431" s="3">
+        <v>42705</v>
       </c>
       <c r="D431" s="3">
-        <v>42886</v>
+        <v>42741</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B432">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C432" s="3">
         <v>42705</v>
       </c>
       <c r="D432" s="3">
-        <v>42853</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B433">
         <v>162</v>
@@ -8041,15 +8007,15 @@
         <v>42705</v>
       </c>
       <c r="D433" s="3">
-        <v>42727</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B434">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C434" s="3">
         <v>42705</v>
@@ -8060,21 +8026,21 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B435">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C435" s="3">
         <v>42705</v>
       </c>
       <c r="D435" s="3">
-        <v>42756</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B436">
         <v>163</v>
@@ -8083,12 +8049,12 @@
         <v>42705</v>
       </c>
       <c r="D436" s="3">
-        <v>42741</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B437">
         <v>163</v>
@@ -8097,12 +8063,12 @@
         <v>42705</v>
       </c>
       <c r="D437" s="3">
-        <v>42790</v>
+        <v>42748</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B438">
         <v>163</v>
@@ -8111,26 +8077,26 @@
         <v>42705</v>
       </c>
       <c r="D438" s="3">
-        <v>42790</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B439">
         <v>164</v>
       </c>
       <c r="C439" s="3">
-        <v>42705</v>
+        <v>42709</v>
       </c>
       <c r="D439" s="3">
-        <v>42727</v>
+        <v>42720</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B440">
         <v>164</v>
@@ -8139,12 +8105,12 @@
         <v>42705</v>
       </c>
       <c r="D440" s="3">
-        <v>42790</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B441">
         <v>164</v>
@@ -8153,54 +8119,54 @@
         <v>42705</v>
       </c>
       <c r="D441" s="3">
-        <v>42790</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B442">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C442" s="3">
         <v>42705</v>
       </c>
       <c r="D442" s="3">
-        <v>42748</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B443">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C443" s="3">
         <v>42705</v>
       </c>
       <c r="D443" s="3">
-        <v>42762</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B444">
         <v>165</v>
       </c>
       <c r="C444" s="3">
-        <v>42709</v>
+        <v>42705</v>
       </c>
       <c r="D444" s="3">
-        <v>42720</v>
+        <v>42735</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B445">
         <v>165</v>
@@ -8214,21 +8180,21 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B446">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C446" s="3">
         <v>42705</v>
       </c>
       <c r="D446" s="3">
-        <v>42735</v>
+        <v>42756</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B447">
         <v>166</v>
@@ -8237,71 +8203,71 @@
         <v>42705</v>
       </c>
       <c r="D447" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B448">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C448" s="3">
         <v>42705</v>
       </c>
       <c r="D448" s="3">
-        <v>42735</v>
+        <v>42756</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B449">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C449" s="3">
         <v>42705</v>
       </c>
       <c r="D449" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B450">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C450" s="3">
         <v>42705</v>
       </c>
       <c r="D450" s="3">
-        <v>42735</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B451">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C451" s="3">
         <v>42705</v>
       </c>
       <c r="D451" s="3">
-        <v>42756</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B452">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C452" s="3">
         <v>42705</v>
@@ -8312,24 +8278,24 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B453">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C453" s="3">
         <v>42705</v>
       </c>
       <c r="D453" s="3">
-        <v>42756</v>
+        <v>42766</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B454">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C454" s="3">
         <v>42705</v>
@@ -8340,10 +8306,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B455">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C455" s="3">
         <v>42705</v>
@@ -8354,10 +8320,10 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B456">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C456" s="3">
         <v>42705</v>
@@ -8368,203 +8334,203 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B457">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C457" s="3">
         <v>42705</v>
       </c>
       <c r="D457" s="3">
-        <v>42766</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B458">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C458" s="3">
         <v>42705</v>
       </c>
       <c r="D458" s="3">
-        <v>42766</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B459">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C459" s="3">
         <v>42705</v>
       </c>
       <c r="D459" s="3">
-        <v>42766</v>
+        <v>42516</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B460">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C460" s="3">
         <v>42705</v>
       </c>
       <c r="D460" s="3">
-        <v>42766</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B461">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C461" s="3">
         <v>42705</v>
       </c>
       <c r="D461" s="3">
-        <v>42766</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B462">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C462" s="3">
         <v>42705</v>
       </c>
       <c r="D462" s="3">
-        <v>42794</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B463">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C463" s="3">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="D463" s="3">
-        <v>42734</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B464">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C464" s="3">
         <v>42705</v>
       </c>
       <c r="D464" s="3">
-        <v>42516</v>
+        <v>42882</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B465">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C465" s="3">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="D465" s="3">
-        <v>42734</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B466">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C466" s="3">
         <v>42705</v>
       </c>
       <c r="D466" s="3">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B467">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C467" s="3">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="D467" s="3">
-        <v>42734</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B468">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C468" s="3">
-        <v>42795</v>
+        <v>42705</v>
       </c>
       <c r="D468" s="3">
-        <v>42916</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B469">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C469" s="3">
         <v>42705</v>
       </c>
       <c r="D469" s="3">
-        <v>42882</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B470">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C470" s="3">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="D470" s="3">
-        <v>42853</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B471">
         <v>180</v>
@@ -8573,26 +8539,26 @@
         <v>42705</v>
       </c>
       <c r="D471" s="3">
-        <v>42762</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B472">
         <v>180</v>
       </c>
       <c r="C472" s="3">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="D472" s="3">
-        <v>42790</v>
+        <v>42881</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B473">
         <v>181</v>
@@ -8601,99 +8567,99 @@
         <v>42705</v>
       </c>
       <c r="D473" s="3">
-        <v>42790</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B474">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C474" s="3">
-        <v>42705</v>
+        <v>42826</v>
       </c>
       <c r="D474" s="3">
-        <v>42790</v>
+        <v>43098</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B475">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C475" s="3">
         <v>42705</v>
       </c>
       <c r="D475" s="3">
-        <v>42825</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B476">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C476" s="3">
         <v>42705</v>
       </c>
       <c r="D476" s="3">
-        <v>42881</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B477">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C477" s="3">
         <v>42705</v>
       </c>
       <c r="D477" s="3">
-        <v>42881</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B478">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C478" s="3">
         <v>42705</v>
       </c>
       <c r="D478" s="3">
-        <v>42825</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B479">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C479" s="3">
-        <v>42826</v>
+        <v>42705</v>
       </c>
       <c r="D479" s="3">
-        <v>43098</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B480">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C480" s="3">
         <v>42705</v>
@@ -8704,24 +8670,24 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B481">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C481" s="3">
         <v>42705</v>
       </c>
       <c r="D481" s="3">
-        <v>42762</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B482">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C482" s="3">
         <v>42705</v>
@@ -8732,183 +8698,113 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B483">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C483" s="3">
         <v>42705</v>
       </c>
       <c r="D483" s="3">
-        <v>42762</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B484">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C484" s="3">
         <v>42705</v>
       </c>
       <c r="D484" s="3">
-        <v>42762</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B485">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C485" s="3">
         <v>42705</v>
       </c>
       <c r="D485" s="3">
-        <v>42734</v>
+        <v>42853</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B486">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C486" s="3">
         <v>42705</v>
       </c>
       <c r="D486" s="3">
-        <v>43099</v>
+        <v>42734</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B487">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C487" s="3">
         <v>42705</v>
       </c>
       <c r="D487" s="3">
-        <v>42762</v>
+        <v>42741</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B488">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C488" s="3">
         <v>42705</v>
       </c>
       <c r="D488" s="3">
-        <v>42853</v>
+        <v>42790</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="B489">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C489" s="3">
         <v>42705</v>
       </c>
       <c r="D489" s="3">
-        <v>42853</v>
+        <v>42727</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B490">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C490" s="3">
         <v>42705</v>
       </c>
       <c r="D490" s="3">
-        <v>42853</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
-        <v>455</v>
-      </c>
-      <c r="B491">
-        <v>193</v>
-      </c>
-      <c r="C491" s="3">
-        <v>42705</v>
-      </c>
-      <c r="D491" s="3">
-        <v>42734</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
-        <v>456</v>
-      </c>
-      <c r="B492">
-        <v>193</v>
-      </c>
-      <c r="C492" s="3">
-        <v>42705</v>
-      </c>
-      <c r="D492" s="3">
-        <v>42741</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
-        <v>457</v>
-      </c>
-      <c r="B493">
-        <v>194</v>
-      </c>
-      <c r="C493" s="3">
-        <v>42705</v>
-      </c>
-      <c r="D493" s="3">
-        <v>42790</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
-        <v>403</v>
-      </c>
-      <c r="B494">
-        <v>195</v>
-      </c>
-      <c r="C494" s="3">
-        <v>42705</v>
-      </c>
-      <c r="D494" s="3">
-        <v>42727</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
-        <v>458</v>
-      </c>
-      <c r="B495">
-        <v>195</v>
-      </c>
-      <c r="C495" s="3">
-        <v>42705</v>
-      </c>
-      <c r="D495" s="3">
         <v>42762</v>
       </c>
     </row>
